--- a/clusters/cluster5.xlsx
+++ b/clusters/cluster5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER II</t>
+          <t>DESENVOLVEDOR BACK-END PLENO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPETITIVO E BENEFICIOS MUITO BONS | CONTRAS: PRESENCIAL 5 DIAS NA SEMANA E DIRETORIA MUDANDO DECISOES A CADA ANO</t>
+          <t>PROS: BOM AMBIENTE PARA APRENDIZAGEM. TECNOLOGIAS DE PONTA. TEM ESPACO PARA INOVAR. | CONTRAS: PRESENCIAL. BUROCRACIA EM EXCESSO. PROGRESSAO DE CARREIRA RUIM.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPETITIVO E BENEFICIOS MUITO BONS</t>
+          <t>PROS: BOM AMBIENTE PARA APRENDIZAGEM. TECNOLOGIAS DE PONTA. TEM ESPACO PARA INOVAR.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRESENCIAL 5 DIAS NA SEMANA E DIRETORIA MUDANDO DECISOES A CADA ANO</t>
+          <t>PRESENCIAL. BUROCRACIA EM EXCESSO. PROGRESSAO DE CARREIRA RUIM.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.02789134 -0.05470479 -0.00926266 ...  0.04395519 -0.02808792
-  0.02634586]</t>
+          <t>[-0.02653152  0.00585174 -0.02541149 ... -0.01926397 -0.02435525
+  0.02271192]</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -514,37 +514,37 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>15.32959461212158</v>
+        <v>14.39211654663086</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.838868141174316</v>
+        <v>6.080932140350342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HUMAN RESOURCES BUSINESS PARTNER</t>
+          <t>DEV III</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROS: AS PESSOAS TENTAM SE AJUDAR FOCANDO NO OBJETIVO DA EMPRESA; BONS BENEFICIOS | CONTRAS: EMPRESA DIGITAL, MAS A FORMA DE TRABALHO E 100% PRESENCIAL.</t>
+          <t>PROS: OS PROJETOS SAO INTERESSANTES E DESAFIADORES. BOM LUGAR PRA CRESCER TECNICAMENTE. | CONTRAS: O PRESENCIAL E UM FATOR BEM NEGATIVO. E PLANO DE CARREIRA NAO EXISTE. PRECISA TER SORTE DE CAIR EM UM TIME COM GRANDE INFLUENCIA DENTRO DO BANCO.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PROS: AS PESSOAS TENTAM SE AJUDAR FOCANDO NO OBJETIVO DA EMPRESA; BONS BENEFICIOS</t>
+          <t>PROS: OS PROJETOS SAO INTERESSANTES E DESAFIADORES. BOM LUGAR PRA CRESCER TECNICAMENTE.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EMPRESA DIGITAL, MAS A FORMA DE TRABALHO E 100% PRESENCIAL.</t>
+          <t>O PRESENCIAL E UM FATOR BEM NEGATIVO. E PLANO DE CARREIRA NAO EXISTE. PRECISA TER SORTE DE CAIR EM UM TIME COM GRANDE INFLUENCIA DENTRO DO BANCO.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.03251415 -0.00936428 -0.04371278 ...  0.0382624  -0.07405568
- -0.00853541]</t>
+          <t>[-0.04334679  0.01686156 -0.04659971 ...  0.01875281 -0.02402123
+ -0.01844892]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -554,37 +554,37 @@
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72580528259277</v>
+        <v>19.4132137298584</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.540690898895264</v>
+        <v>-8.389044761657715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FRONTEND DEVELOPER</t>
+          <t>ADVISOR I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS E BENEFICIOS CONDIZENTES COM O MERCADO | CONTRAS: PRESENCIAL 100%, NAO EXISTE NEM MESMO UM HIBRIDO</t>
+          <t>PROS: MUITO BOA ESTRUTURA DE TRABALHO | CONTRAS: NAO TEM PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS E BENEFICIOS CONDIZENTES COM O MERCADO</t>
+          <t>PROS: MUITO BOA ESTRUTURA DE TRABALHO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRESENCIAL 100%, NAO EXISTE NEM MESMO UM HIBRIDO</t>
+          <t>NAO TEM PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.00990793 -0.03213819 -0.0118666  ...  0.04356232 -0.02674963
-  0.05688834]</t>
+          <t>[-0.02777253  0.00172459 -0.02867632 ... -0.01746169  0.0032521
+ -0.01080907]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -594,37 +594,37 @@
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>23.56989097595215</v>
+        <v>16.26864624023438</v>
       </c>
       <c r="I4" t="n">
-        <v>-10.32073307037354</v>
+        <v>-2.918575048446655</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TECH COORDINATOR</t>
+          <t>ANALISTA DE POLITICAS DE CREDITO PLENO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROS: O CLIMA E AS PESSOAS SAO MUITO BACANAS | CONTRAS: MODELO DE TRABALHO TOTALMENTE PRESENCIAL</t>
+          <t>PROS: MUITA OPORTUNIDADE PARA DESENVOLVER HABILIDADES. TRABALHO COM MUITA TECNOLOGIA | CONTRAS: PLANO DE CARREIRA. CRITERIO PARA CONTRATACAO ABAIXO DO QUE PARA PROMOCAO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PROS: O CLIMA E AS PESSOAS SAO MUITO BACANAS</t>
+          <t>PROS: MUITA OPORTUNIDADE PARA DESENVOLVER HABILIDADES. TRABALHO COM MUITA TECNOLOGIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO TOTALMENTE PRESENCIAL</t>
+          <t>PLANO DE CARREIRA. CRITERIO PARA CONTRATACAO ABAIXO DO QUE PARA PROMOCAO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.00762256  0.02584735 -0.02923491 ...  0.03026718 -0.0541398
-  0.00995226]</t>
+          <t>[-0.04885947 -0.03518648 -0.03194082 ... -0.02239057  0.03724192
+ -0.01640364]</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -634,37 +634,37 @@
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>25.01345443725586</v>
+        <v>8.707088470458984</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.247491836547852</v>
+        <v>-7.800109386444092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COORDINATOR</t>
+          <t>ANALISTA DE SISTEMAS JUNIOR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROS: CLIMA EXCELENTE, BENEFICIOS MUITO BONS | CONTRAS: POUCO PLANO DE CARREIRA, 100% PRESENCIAL</t>
+          <t>PROS: SALARIO MUITO BOM PARA UM JUNIOR, HOME OFFICE NO COMECO. | CONTRAS: PLR DE 1500 REAIS, SEM PLANO DE CARREIRA, PRESENCIAL ENTRE OUTRAS COISAS.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PROS: CLIMA EXCELENTE, BENEFICIOS MUITO BONS</t>
+          <t>PROS: SALARIO MUITO BOM PARA UM JUNIOR, HOME OFFICE NO COMECO.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>POUCO PLANO DE CARREIRA, 100% PRESENCIAL</t>
+          <t>PLR DE 1500 REAIS, SEM PLANO DE CARREIRA, PRESENCIAL ENTRE OUTRAS COISAS.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.01766855 -0.01510581 -0.02672902 ... -0.00175118 -0.011671
- -0.00609165]</t>
+          <t>[-0.05723918 -0.00049534 -0.04196743 ... -0.0124474  -0.02916395
+ -0.02164666]</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -674,37 +674,37 @@
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>19.44157218933105</v>
+        <v>16.67360687255859</v>
       </c>
       <c r="I6" t="n">
-        <v>-11.97171115875244</v>
+        <v>2.631540298461914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA INOVADORA, COM MUITOS PROJETOS, EXCELENTE LUGAR PARA SE DESENVOLVER PROFISSIONALMENTE. PARA QUEM E DA AREA DE TECNOLOGIA E UM EXCELENTE PARA SE DESENVOLVER COMO PROFISSIONAL. | CONTRAS: MODELO DE TRABALHO 100 PRESENCIAL E UM DESAFIO PARA ALGUMAS PESSOAS.</t>
+          <t>PROS: BOA ESTRUTURA, EMPRESA ORGANIZADA E COM BOAS OPORTUNIDADES DE CRESCIMENTO. | CONTRAS: FALTA DE PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA INOVADORA, COM MUITOS PROJETOS, EXCELENTE LUGAR PARA SE DESENVOLVER PROFISSIONALMENTE. PARA QUEM E DA AREA DE TECNOLOGIA E UM EXCELENTE PARA SE DESENVOLVER COMO PROFISSIONAL.</t>
+          <t>PROS: BOA ESTRUTURA, EMPRESA ORGANIZADA E COM BOAS OPORTUNIDADES DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO 100 PRESENCIAL E UM DESAFIO PARA ALGUMAS PESSOAS.</t>
+          <t>FALTA DE PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.00688614  0.00202477 -0.05271452 ...  0.02446244 -0.04235929
-  0.02272051]</t>
+          <t>[-0.03686932  0.00582306 -0.0389265  ... -0.00460904 -0.0031775
+  0.01601735]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -714,37 +714,37 @@
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>25.81511688232422</v>
+        <v>12.89117336273193</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.066183567047119</v>
+        <v>-4.472908020019531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR DE SOFTWARE SENIOR</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROS: MUITA NOVIDADE E AMBIENTE MUITO DINAMICO PARA TRABALHO | CONTRAS: PRESENCIAL, ALGUMAS DECISOES DA DIRETORIA NAO LEVAM EM CONSIDERACAO O BEM ESTAR DOS FUNCIONARIOS</t>
+          <t>PROS: BONS BENEFICIOS E SALARIO COMPETITIVO | CONTRAS: INFLEXIBILIDADE, PRESENCIAL, SEM PLANO DE CARREIRA E MUITO TRABALHO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PROS: MUITA NOVIDADE E AMBIENTE MUITO DINAMICO PARA TRABALHO</t>
+          <t>PROS: BONS BENEFICIOS E SALARIO COMPETITIVO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PRESENCIAL, ALGUMAS DECISOES DA DIRETORIA NAO LEVAM EM CONSIDERACAO O BEM ESTAR DOS FUNCIONARIOS</t>
+          <t>INFLEXIBILIDADE, PRESENCIAL, SEM PLANO DE CARREIRA E MUITO TRABALHO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.03871137 -0.01252955 -0.03639006 ...  0.0327953  -0.01594206
- -0.03042865]</t>
+          <t>[-0.03412477 -0.01121586 -0.0376853  ...  0.01306191 -0.03038413
+  0.01819653]</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -754,37 +754,37 @@
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>16.68248558044434</v>
+        <v>16.48117065429688</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.567254066467285</v>
+        <v>5.458560466766357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE ENGINEER</t>
+          <t>ANALISTA DE MONITORAMENTO E OBSERVABILIDADE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO, BENEFICIOS E CLIMA DE TRABALHO. BOA STACK TECNICA E GRANDES DESAFIOS. | CONTRAS: 100% PRESENCIAL SEM NECESSIDADE, DECISOES ARBITRARIAS QUE SO PREJUDICAM OS COLABORADORES, SEM DIALOGO. DECISOES QUE PREJUDICAM O COLABORAR MESMO APOS LUCRO RECORDE.</t>
+          <t>PROS: AMBIENTE DESAFIADOR, OTIMOS BENEFICIOS, GESTAO MUITO ACOLHEDORA. | CONTRAS: NAO HA UM PLANO DE CARREIRA CONSOLIDADO.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO, BENEFICIOS E CLIMA DE TRABALHO. BOA STACK TECNICA E GRANDES DESAFIOS.</t>
+          <t>PROS: AMBIENTE DESAFIADOR, OTIMOS BENEFICIOS, GESTAO MUITO ACOLHEDORA.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL SEM NECESSIDADE, DECISOES ARBITRARIAS QUE SO PREJUDICAM OS COLABORADORES, SEM DIALOGO. DECISOES QUE PREJUDICAM O COLABORAR MESMO APOS LUCRO RECORDE.</t>
+          <t>NAO HA UM PLANO DE CARREIRA CONSOLIDADO.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.03402437  0.03298153 -0.0103257  ...  0.01243446  0.00779956
-  0.00623011]</t>
+          <t>[-0.0245883  -0.00721736 -0.05835161 ...  0.00391201  0.02337548
+  0.02560003]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -794,37 +794,37 @@
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94869613647461</v>
+        <v>13.80929470062256</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.732208728790283</v>
+        <v>-2.188291072845459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UX DESIGNER</t>
+          <t>SOWFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS MUITO BONS (ALIMENTACAO E REFEICAO). | CONTRAS: SEM HOME OFFICE, 100 PRESENCIAL.</t>
+          <t>PROS: - BOM BENEFICIARIO DE ALIMENTACAO, REFEICAO, AUXILIO MATERNIDADE - TIVE SORTE DE ESTAR EM UM TIME COLABORATIVO E RESPEITOSO - OPORTUNIDADE DE APRENDER E LIDAR COM NOVAS TECNOLOGIAS | CONTRAS: - SEM PLANO DE CARREIRA E SEM MUITA EXPECTATIVA DE PROMOCAO - VOLTARAM PRESENCIAL, TIRANDO A CHANCE DE QUEM ESTAVA ATUANDO REMOTO - PLANO DE SAUDE BEM RUIM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS MUITO BONS (ALIMENTACAO E REFEICAO).</t>
+          <t>PROS: - BOM BENEFICIARIO DE ALIMENTACAO, REFEICAO, AUXILIO MATERNIDADE - TIVE SORTE DE ESTAR EM UM TIME COLABORATIVO E RESPEITOSO - OPORTUNIDADE DE APRENDER E LIDAR COM NOVAS TECNOLOGIAS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SEM HOME OFFICE, 100 PRESENCIAL.</t>
+          <t>- SEM PLANO DE CARREIRA E SEM MUITA EXPECTATIVA DE PROMOCAO - VOLTARAM PRESENCIAL, TIRANDO A CHANCE DE QUEM ESTAVA ATUANDO REMOTO - PLANO DE SAUDE BEM RUIM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-0.02140414 -0.01167127 -0.02985343 ...  0.00217901 -0.03268855
-  0.04798231]</t>
+          <t>[-0.01254618  0.01431523 -0.01319307 ...  0.00157655 -0.00519448
+ -0.0377063 ]</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -834,37 +834,37 @@
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>26.05505752563477</v>
+        <v>18.19704818725586</v>
       </c>
       <c r="I10" t="n">
-        <v>7.180460929870605</v>
+        <v>6.15938663482666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>DEV SENIOR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROS: TIME COLABORATIVO, TECNOLOGIAS ATUAIS, AMBIENTE DE CRESCIMENTO ACELERADO, AUTONOMIA. | CONTRAS: MODELO DE TRABALHO E TOTALMENTE PRESENCIAL.</t>
+          <t>PROS: VOCE VAI APRENDER MUITO, MAS NA MAIORIA DAS VEZES VAI APRENDER DA PIOR MANEIRA POSSIVEL, RESOLVENDO PROBLEMAS CRITICOS E PESQUISANDO SOBRE. | CONTRAS: NAO TEM PLANO DE CARREIRA BEM DEFINIDO, O QUE LEVA A FALTA DE PROMOCOES E DESMOTIVACAO.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PROS: TIME COLABORATIVO, TECNOLOGIAS ATUAIS, AMBIENTE DE CRESCIMENTO ACELERADO, AUTONOMIA.</t>
+          <t>PROS: VOCE VAI APRENDER MUITO, MAS NA MAIORIA DAS VEZES VAI APRENDER DA PIOR MANEIRA POSSIVEL, RESOLVENDO PROBLEMAS CRITICOS E PESQUISANDO SOBRE.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO E TOTALMENTE PRESENCIAL.</t>
+          <t>NAO TEM PLANO DE CARREIRA BEM DEFINIDO, O QUE LEVA A FALTA DE PROMOCOES E DESMOTIVACAO.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-0.00924593 -0.00519514 -0.0475946  ...  0.04141428 -0.04628262
-  0.0101373 ]</t>
+          <t>[-0.04116572 -0.01418399 -0.04160606 ... -0.00382508  0.02353406
+ -0.02980105]</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -874,37 +874,37 @@
         <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>25.07218551635742</v>
+        <v>12.14419460296631</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.518762588500977</v>
+        <v>-0.2478019297122955</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TECH ASSISTANT</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROS: - BONS BENEFICIOS - AMBIENTE OK | CONTRAS: - 100% PRESENCIAL - PROGRESSAO DE CARREIRA CONGELADO - CRIARAM SUBCARGOS COM O INTUITO DE ABAIXAR O SALARIO</t>
+          <t>PROS: BOM SALARIO E BONS BENEFICIOS | CONTRAS: SEM PLANO DE CARREIRA DETALHADO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PROS: - BONS BENEFICIOS - AMBIENTE OK</t>
+          <t>PROS: BOM SALARIO E BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>- 100% PRESENCIAL - PROGRESSAO DE CARREIRA CONGELADO - CRIARAM SUBCARGOS COM O INTUITO DE ABAIXAR O SALARIO</t>
+          <t>SEM PLANO DE CARREIRA DETALHADO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-0.05445588  0.00044722 -0.02549184 ... -0.00351998  0.02360301
- -0.01220965]</t>
+          <t>[-0.03340045  0.00374331 -0.01504328 ... -0.01479869 -0.00586083
+  0.02447713]</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -914,37 +914,37 @@
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>16.18742942810059</v>
+        <v>14.63499927520752</v>
       </c>
       <c r="I12" t="n">
-        <v>-11.16529560089111</v>
+        <v>-4.876776218414307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ESPECIALISTA</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROS: VR, VA, SALARIO, PAO DE QUEIJO MUITO BOM. | CONTRAS: PRESENCIAL, FALTA FLEXIBILIDADE PARA HIBRIDO, NAO OUVEM A OPINIAO DOS FUNCIONARIOS</t>
+          <t>PROS: BONS BENEFICIOS (TICKET, DUO, CARTAO BLACK) | CONTRAS: FALTA PLANO DE CARREIRA NA EMPRESA.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PROS: VR, VA, SALARIO, PAO DE QUEIJO MUITO BOM.</t>
+          <t>PROS: BONS BENEFICIOS (TICKET, DUO, CARTAO BLACK)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PRESENCIAL, FALTA FLEXIBILIDADE PARA HIBRIDO, NAO OUVEM A OPINIAO DOS FUNCIONARIOS</t>
+          <t>FALTA PLANO DE CARREIRA NA EMPRESA.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[-0.022436   -0.01992768 -0.02905043 ...  0.03599719 -0.02396398
-  0.0473819 ]</t>
+          <t>[-0.05659489  0.00309859 -0.04809977 ...  0.00540355 -0.01566411
+  0.01090749]</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -954,43 +954,37 @@
         <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>28.40435791015625</v>
+        <v>11.98111915588379</v>
       </c>
       <c r="I13" t="n">
-        <v>0.510065495967865</v>
+        <v>-5.094309329986572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DATA SCIENTIST I</t>
+          <t>DEV I</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM
-VA E VR
-PLR
-PLANO DE SAUDE | CONTRAS: PRESENCIAL 100%, RETIRANDO O 1 DIA DE REMOTO</t>
+          <t>PROS: * POSSUI UMA VASTA VARIEDADE EM FERRAMENTAS E TECNOLOGIAS QUE AJUDAM NO GANHO DE CONHECIMENTO. * HOME OFFICE PARA QUEM NAO RESIDE EM BH. * FLEXIBILIDADE NO DIA A DIA. * DAYOFF DE ANIVERSARIO | CONTRAS: * DIFICIL PROGRESSAO DE CARGO (PRATICAMENTE NAO HA UM PLANO DE CARREIRA CONSOLIDADO).</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM
-VA E VR
-PLR
-PLANO DE SAUDE</t>
+          <t>PROS: * POSSUI UMA VASTA VARIEDADE EM FERRAMENTAS E TECNOLOGIAS QUE AJUDAM NO GANHO DE CONHECIMENTO. * HOME OFFICE PARA QUEM NAO RESIDE EM BH. * FLEXIBILIDADE NO DIA A DIA. * DAYOFF DE ANIVERSARIO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PRESENCIAL 100%, RETIRANDO O 1 DIA DE REMOTO</t>
+          <t>* DIFICIL PROGRESSAO DE CARGO (PRATICAMENTE NAO HA UM PLANO DE CARREIRA CONSOLIDADO).</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-0.00253259 -0.01500531 -0.02015976 ... -0.01365368 -0.05068402
-  0.02543421]</t>
+          <t>[-0.02132934  0.00976254 -0.03906188 ... -0.01757311  0.00532326
+  0.0026324 ]</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1000,37 +994,37 @@
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>22.48060989379883</v>
+        <v>8.176865577697754</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.684925556182861</v>
+        <v>-0.9952213168144226</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SYSTEM ANALYST</t>
+          <t>ANALISTA DO SUCESSO DO CLIENTE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE, BONS LIDERES E COLEGAS DE EQUIPE | CONTRAS: VOLTA DO TRABALHO PRESENCIAL E PLR</t>
+          <t>PROS: BENEFICIOS, SALARIO, AMBIENTE, PLANO DE SAUDE BOM | CONTRAS: GESTAO, PS CARO, N HA PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE, BONS LIDERES E COLEGAS DE EQUIPE</t>
+          <t>PROS: BENEFICIOS, SALARIO, AMBIENTE, PLANO DE SAUDE BOM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VOLTA DO TRABALHO PRESENCIAL E PLR</t>
+          <t>GESTAO, PS CARO, N HA PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.0200634   0.02876732 -0.01769434 ... -0.00282977 -0.06236354
-  0.01729666]</t>
+          <t>[-0.01775255  0.0115196  -0.03654482 ... -0.02040693 -0.00942687
+ -0.00903249]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1040,37 +1034,39 @@
         <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>22.77166175842285</v>
+        <v>15.44299697875977</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5634401440620422</v>
+        <v>-1.714300751686096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS SENIOR</t>
+          <t>ANALISTA DE MONITORAMENTO PLENO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS EXCELENTES POREM O AMBIENTE E BEM TOXICO. DEMISSOES EM MASSA O TEMPO TODO. | CONTRAS: ATE AS PESSOAS QUE FORAM CONTRATADAS 100% REMOTO FORAM OBRIGADAS A TRABALHAR PRESENCIAL COM RISCO DE DEMISSAO.</t>
+          <t>PROS: OTIMOS SALARIOS E BENEFICIOS. EMPRESA BEM AGRADAVEL DE SE TRABALHAR | CONTRAS: VOCE NAO SABE O QUE FAZER PARA SER PROMOVIDO, SEM PLANO DE CARREIRA.
+RH E MUITO AFASTADO DOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS EXCELENTES POREM O AMBIENTE E BEM TOXICO. DEMISSOES EM MASSA O TEMPO TODO.</t>
+          <t>PROS: OTIMOS SALARIOS E BENEFICIOS. EMPRESA BEM AGRADAVEL DE SE TRABALHAR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ATE AS PESSOAS QUE FORAM CONTRATADAS 100% REMOTO FORAM OBRIGADAS A TRABALHAR PRESENCIAL COM RISCO DE DEMISSAO.</t>
+          <t>VOCE NAO SABE O QUE FAZER PARA SER PROMOVIDO, SEM PLANO DE CARREIRA.
+RH E MUITO AFASTADO DOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-0.01172285  0.02411461 -0.01829123 ...  0.00542515 -0.04848177
- -0.00593545]</t>
+          <t>[-0.01941097  0.03019509 -0.01259776 ...  0.00499311  0.03981789
+ -0.00358922]</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1080,37 +1076,53 @@
         <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>20.44586563110352</v>
+        <v>10.7044792175293</v>
       </c>
       <c r="I16" t="n">
-        <v>-6.618515491485596</v>
+        <v>-0.8737276196479797</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR JAVA PLENO</t>
+          <t>ANALISTA BUSINESS INTELLIGENCE (BI)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, REMUNERACAO, BENEFICIOS, FLEXIBILIDADE E INOVACAO | CONTRAS: REGIME PRESENCIAL, FALTA DE ESTACIONAMENTO NAS REDONDEZAS</t>
+          <t>PROS: CONFIANCA 
+SALARIO
+BENEFICIOS 
+EQUIPE 
+CRESCIMENTO | CONTRAS: PLANO DE CARREIRA
+PLR
+FEEDBACKS
+PRESENCIAL
+ORGANOGRAMA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, REMUNERACAO, BENEFICIOS, FLEXIBILIDADE E INOVACAO</t>
+          <t>PROS: CONFIANCA 
+SALARIO
+BENEFICIOS 
+EQUIPE 
+CRESCIMENTO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>REGIME PRESENCIAL, FALTA DE ESTACIONAMENTO NAS REDONDEZAS</t>
+          <t>PLANO DE CARREIRA
+PLR
+FEEDBACKS
+PRESENCIAL
+ORGANOGRAMA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[ 7.9652509e-03  3.1094398e-02 -1.3423052e-02 ...  1.8924277e-02
- -5.1967811e-02 -5.6111367e-05]</t>
+          <t>[-0.04652961  0.00596849 -0.02091633 ...  0.0009602  -0.00582317
+  0.00035973]</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1120,37 +1132,37 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>15.02883052825928</v>
+        <v>20.28996467590332</v>
       </c>
       <c r="I17" t="n">
-        <v>-14.90058994293213</v>
+        <v>2.714102029800415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE ATENDIMENTO</t>
+          <t>ESTAGIO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROS: O HORARIO DE TRABALHO E MUITO BOM. | CONTRAS: TIRARAM O HOME OFFICE E ISSO FOI DESNECESSARIO.</t>
+          <t>PROS: EXPERIENCIA, CURRICULO PARA O MERCADO, RELACIONAL | CONTRAS: BOLSA ESTAGIO E PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PROS: O HORARIO DE TRABALHO E MUITO BOM.</t>
+          <t>PROS: EXPERIENCIA, CURRICULO PARA O MERCADO, RELACIONAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TIRARAM O HOME OFFICE E ISSO FOI DESNECESSARIO.</t>
+          <t>BOLSA ESTAGIO E PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[ 0.01441871  0.00776831 -0.07184187 ... -0.00066556 -0.05942653
- -0.00812852]</t>
+          <t>[ 0.02253691 -0.02745434 -0.03511748 ...  0.00394704 -0.01180277
+  0.01397696]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1160,37 +1172,37 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>31.14310264587402</v>
+        <v>13.97564506530762</v>
       </c>
       <c r="I18" t="n">
-        <v>8.13972282409668</v>
+        <v>-8.140477180480957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOFTWARE ENGINEER I</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE ESTIMULANTE E PRODUTOS QUE FUNCIONAM. | CONTRAS: TRABALHO PRESENCIAL E O BANCO DE HORAS E COMPRADO AO FINAL DE TODO MES</t>
+          <t>PROS: BOA CULTURA, BONS BENEFICIOS E JORNADA FLEXIVEL. | CONTRAS: TRANSPARENCIA NA PARTICIPACAO DOS LUCROS E PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE ESTIMULANTE E PRODUTOS QUE FUNCIONAM.</t>
+          <t>PROS: BOA CULTURA, BONS BENEFICIOS E JORNADA FLEXIVEL.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL E O BANCO DE HORAS E COMPRADO AO FINAL DE TODO MES</t>
+          <t>TRANSPARENCIA NA PARTICIPACAO DOS LUCROS E PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[ 0.03236371  0.01399432 -0.06004817 ...  0.00564406 -0.03995465
- -0.0107003 ]</t>
+          <t>[-0.04618947 -0.03366442 -0.02338585 ... -0.01789979  0.00320537
+  0.00866561]</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1200,37 +1212,37 @@
         <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>24.29854774475098</v>
+        <v>11.87719631195068</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.6443979740142822</v>
+        <v>-9.425688743591309</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLUTION ANALYST</t>
+          <t>DATA ANALYST</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA ORGANIZADA E EM GRANDE EXPANSAO | CONTRAS: O MODELO DE TRABALHO E PRESENCIAL</t>
+          <t>PROS: BOM SALARIO E BENEFICIOS. AMBIENTE LEGAL E PESSOAS E TECNOLOGIAS BOAS | CONTRAS: DIFICULDADE DE PROGRESSAO DE CARREIRA.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA ORGANIZADA E EM GRANDE EXPANSAO</t>
+          <t>PROS: BOM SALARIO E BENEFICIOS. AMBIENTE LEGAL E PESSOAS E TECNOLOGIAS BOAS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O MODELO DE TRABALHO E PRESENCIAL</t>
+          <t>DIFICULDADE DE PROGRESSAO DE CARREIRA.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-0.0058362  -0.00183759 -0.04115825 ...  0.0335162  -0.03881507
-  0.00181562]</t>
+          <t>[-0.01583153  0.00379339 -0.02765939 ... -0.01491222 -0.01493882
+  0.00168322]</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1240,37 +1252,37 @@
         <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>25.48880767822266</v>
+        <v>6.345878601074219</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.588107109069824</v>
+        <v>-0.2800508439540863</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ANALISTA</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA BOA . MUITA COISA AINDA PARA SER ESTRUTURADO | CONTRAS: CULTURA 100% PRESENCIAL E CULTURA DE BANCO , MASSANTE</t>
+          <t>PROS: BONS BENEFICIOS FLEXIBILIDADE HORARIO EVENTOS PESSOAS AMIGAVEIS | CONTRAS: FALTA DE HOME OFFICE TODO MUNDO E PARENTE / AMIGO DIFICULDADE DE TRILHA DE CARREIRA PREFERENCIAL PARA ALGUMAS PESSOAS ESTRATEGIA NAO MUITO CLARA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA BOA . MUITA COISA AINDA PARA SER ESTRUTURADO</t>
+          <t>PROS: BONS BENEFICIOS FLEXIBILIDADE HORARIO EVENTOS PESSOAS AMIGAVEIS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CULTURA 100% PRESENCIAL E CULTURA DE BANCO , MASSANTE</t>
+          <t>FALTA DE HOME OFFICE TODO MUNDO E PARENTE / AMIGO DIFICULDADE DE TRILHA DE CARREIRA PREFERENCIAL PARA ALGUMAS PESSOAS ESTRATEGIA NAO MUITO CLARA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-0.00043166 -0.01386358 -0.03909747 ...  0.00539202 -0.03425965
-  0.0146108 ]</t>
+          <t>[-0.02146335  0.01343745 -0.03051264 ...  0.0219744  -0.00451686
+ -0.00563777]</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1280,37 +1292,49 @@
         <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>25.74860954284668</v>
+        <v>7.890190601348877</v>
       </c>
       <c r="I21" t="n">
-        <v>-7.68498706817627</v>
+        <v>-0.1653969585895538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ASSISTENTE INVESTIMENTOS II</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE MUITO BOM E AGREGADOR. | CONTRAS: 100% PRESENCIAL, DIFERENTE DO QUE OUTRAS INSTITUICOES PROPORCIONAM.</t>
+          <t>PROS: CARTAO ALIMENTACAO
+CARTAO REFEICAO
+LIDERANCA EXCELENTE
+BOM AMBIENTE DE TRABALHO
+TIMES ENGAJADOS | CONTRAS: FALTA DE PLANO DE CARREIRA
+SEM UM PROGRAMA TRAINEE
+PODE-SE FICAR DURANTE MUITO TEMPO NA MESMA FUNCAO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE MUITO BOM E AGREGADOR.</t>
+          <t>PROS: CARTAO ALIMENTACAO
+CARTAO REFEICAO
+LIDERANCA EXCELENTE
+BOM AMBIENTE DE TRABALHO
+TIMES ENGAJADOS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL, DIFERENTE DO QUE OUTRAS INSTITUICOES PROPORCIONAM.</t>
+          <t>FALTA DE PLANO DE CARREIRA
+SEM UM PROGRAMA TRAINEE
+PODE-SE FICAR DURANTE MUITO TEMPO NA MESMA FUNCAO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[-0.00708406 -0.01625802 -0.03750843 ...  0.01130126 -0.02051
- -0.0089985 ]</t>
+          <t>[-0.03386144  0.00613496 -0.04895138 ... -0.03348283 -0.02713211
+  0.01918357]</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1320,37 +1344,37 @@
         <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>23.57125282287598</v>
+        <v>13.20067501068115</v>
       </c>
       <c r="I22" t="n">
-        <v>-7.604804039001465</v>
+        <v>-0.3732669651508331</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>GERENTE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE BOA. VISTA BONITA. BONS BENEFICIOS. | CONTRAS: 100% PRESENCIAL. NECESSARIO IMPLORAR POR PROMOCOES.</t>
+          <t>PROS: A EMPRESA APRESENTA BOAS OPORTUNIDADES DE CRESCIMENTO PARA QUEM QUER CORRER ATRAS DELAS, SE O FUNCIONARIO SE DEDICAR A ENTENDER ALEM DO SEU ESCOPO, POR ESTAR AINDA EM FASE DE CRESCIMENTO, E POSSIVEL SUBIR NA CARREIRA. | CONTRAS: NAO POSSUI PLANO DE CARREIRAS BEM DEFINIDO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE BOA. VISTA BONITA. BONS BENEFICIOS.</t>
+          <t>PROS: A EMPRESA APRESENTA BOAS OPORTUNIDADES DE CRESCIMENTO PARA QUEM QUER CORRER ATRAS DELAS, SE O FUNCIONARIO SE DEDICAR A ENTENDER ALEM DO SEU ESCOPO, POR ESTAR AINDA EM FASE DE CRESCIMENTO, E POSSIVEL SUBIR NA CARREIRA.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL. NECESSARIO IMPLORAR POR PROMOCOES.</t>
+          <t>NAO POSSUI PLANO DE CARREIRAS BEM DEFINIDO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[-0.02547093 -0.01929995 -0.0313032  ... -0.00465169 -0.02023621
-  0.02151981]</t>
+          <t>[-0.01927086 -0.02248207 -0.0225171  ... -0.0145882   0.00879557
+ -0.01895444]</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1360,37 +1384,37 @@
         <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>22.35372543334961</v>
+        <v>17.07949256896973</v>
       </c>
       <c r="I23" t="n">
-        <v>-7.097971439361572</v>
+        <v>-4.008486270904541</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROS: JA TEVE MUITOS, JA FOI UM DOS MELHORES LUGARES DE BH PRA SE TRABALHAR | CONTRAS: 100% PRESENCIAL BATER PONTO VARIOS PROCESSOS QUE SO DIMINUEM PRODUTIVIDADE ENGESSADA CHEIO DE PANELAS</t>
+          <t>PROS: AMBIENTE TRANQUILO, FLEXIBILIDADE, VALORIZACAO OK | CONTRAS: NAO HA PLANO DE CARREIRA ESPECIFICO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PROS: JA TEVE MUITOS, JA FOI UM DOS MELHORES LUGARES DE BH PRA SE TRABALHAR</t>
+          <t>PROS: AMBIENTE TRANQUILO, FLEXIBILIDADE, VALORIZACAO OK</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL BATER PONTO VARIOS PROCESSOS QUE SO DIMINUEM PRODUTIVIDADE ENGESSADA CHEIO DE PANELAS</t>
+          <t>NAO HA PLANO DE CARREIRA ESPECIFICO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[ 0.00110986 -0.01979508 -0.0535312  ...  0.02560485 -0.00948574
-  0.0272726 ]</t>
+          <t>[-0.0314312  -0.02437196 -0.02741832 ... -0.00057441  0.00524931
+ -0.0046807 ]</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1400,37 +1424,37 @@
         <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>25.13881683349609</v>
+        <v>17.18178939819336</v>
       </c>
       <c r="I24" t="n">
-        <v>-9.332065582275391</v>
+        <v>-4.580178737640381</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>UX DESIGNER</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROS: ESTRUTURA BOA, TEMAS BONS PARA SE DESENVOLVER, VISTO SER UMA EMPRESA EM CRESCIMENTO | CONTRAS: TRABALHO EXCESSIVO, TOTALMENTE PRESENCIAL E SEM FLEXIBILIDADE</t>
+          <t>PROS: MUITO BOM O SALARIO E OS VALORES DE VA E VR. | CONTRAS: DEMORA NA PROGRESSAO DE CARREIRA, VALES POUCO FLEXIVEIS E SEM BENEFICIOS COMO GYM PASS.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PROS: ESTRUTURA BOA, TEMAS BONS PARA SE DESENVOLVER, VISTO SER UMA EMPRESA EM CRESCIMENTO</t>
+          <t>PROS: MUITO BOM O SALARIO E OS VALORES DE VA E VR.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TRABALHO EXCESSIVO, TOTALMENTE PRESENCIAL E SEM FLEXIBILIDADE</t>
+          <t>DEMORA NA PROGRESSAO DE CARREIRA, VALES POUCO FLEXIVEIS E SEM BENEFICIOS COMO GYM PASS.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[-0.01757893  0.01576287 -0.04012255 ...  0.02515227 -0.04236136
-  0.04911643]</t>
+          <t>[-0.03574131 -0.00970949 -0.0582377  ... -0.04552178 -0.03850319
+  0.01859734]</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1440,37 +1464,37 @@
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>20.9083366394043</v>
+        <v>7.406786918640137</v>
       </c>
       <c r="I25" t="n">
-        <v>-5.142221450805664</v>
+        <v>2.213447570800781</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>ADVOGADO JUNIOR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE DE TRABALHO (BONS COLEGAS) USO DE TECNOLOGIAS DE PONTA | CONTRAS: RETORNO A 100% PRESENCIAL (LAYOFF FORCADO) PLANO DE CARREIRA NEBULOSO POUCO RECONHECIMENTO</t>
+          <t>PROS: NAO HA PROS. EMPRESA DESORGANIZADA E COM FALTA DE CLAREZA NAS SUAS COMUNICACOES E EXPECTATIVAS. NAO PAGAM PL (FAZEM FALSAS PROMESSAS NAS ENTREVISTAS). | CONTRAS: SEM UM PLANO DE CARREIRA DEFINIDO, AS PROMOCOES PARECEM BENEFICIAR APENAS AQUELES QUE TEM CONEXOES COM A DIRETORIA, EM VEZ DE SEREM BASEADAS NA MERITOCRACIA.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE DE TRABALHO (BONS COLEGAS) USO DE TECNOLOGIAS DE PONTA</t>
+          <t>PROS: NAO HA PROS. EMPRESA DESORGANIZADA E COM FALTA DE CLAREZA NAS SUAS COMUNICACOES E EXPECTATIVAS. NAO PAGAM PL (FAZEM FALSAS PROMESSAS NAS ENTREVISTAS).</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RETORNO A 100% PRESENCIAL (LAYOFF FORCADO) PLANO DE CARREIRA NEBULOSO POUCO RECONHECIMENTO</t>
+          <t>SEM UM PLANO DE CARREIRA DEFINIDO, AS PROMOCOES PARECEM BENEFICIAR APENAS AQUELES QUE TEM CONEXOES COM A DIRETORIA, EM VEZ DE SEREM BASEADAS NA MERITOCRACIA.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[ 0.01199566  0.01893803 -0.01301699 ...  0.00274754 -0.00437767
-  0.02387016]</t>
+          <t>[-0.06556069 -0.01879475 -0.0130957  ... -0.00017408  0.00208307
+ -0.00474926]</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1480,37 +1504,37 @@
         <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>18.41425323486328</v>
+        <v>-23.19794273376465</v>
       </c>
       <c r="I26" t="n">
-        <v>-12.99653244018555</v>
+        <v>-4.28237771987915</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS SENIOR</t>
+          <t>ASSISTENTE DE OPERACOES</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA, COM OTIMOS BENEFICIOS. TRABALHA COM BOAS TECNOLOGIAS. | CONTRAS: INDEFINICAO SOBRE ATUACAO DOS FUNCIONARIOS HOMEOFFICE</t>
+          <t>PROS: BENEFICIOS BANCARIOS SAO BONS, AMBIENTE ACOLHEDOR | CONTRAS: PLR, FALTA DE PLANO DE CARREIRA, 100% PRESENCIAL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA, COM OTIMOS BENEFICIOS. TRABALHA COM BOAS TECNOLOGIAS.</t>
+          <t>PROS: BENEFICIOS BANCARIOS SAO BONS, AMBIENTE ACOLHEDOR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INDEFINICAO SOBRE ATUACAO DOS FUNCIONARIOS HOMEOFFICE</t>
+          <t>PLR, FALTA DE PLANO DE CARREIRA, 100% PRESENCIAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[-0.03905979 -0.01892735 -0.04387609 ... -0.02559904 -0.05607947
- -0.00620377]</t>
+          <t>[-0.05176858 -0.00608258 -0.01614145 ...  0.00678632 -0.01867941
+  0.0186307 ]</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1520,37 +1544,37 @@
         <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>28.54112243652344</v>
+        <v>20.0705509185791</v>
       </c>
       <c r="I27" t="n">
-        <v>8.437331199645996</v>
+        <v>6.290445327758789</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ASSISTENTE DE OPERACOES</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROS: HORARIO AJUSTAVEL, BOA GESTAO DE PESSOAS E ATIVIDADES SETORIZADAS. | CONTRAS: SEM HOME OFFICE NA ESCALA.</t>
+          <t>PROS: TODOS OS BENEFICIOS DE BANCARIOS SAO CONCEDIDOS | CONTRAS: DEPENDENDO DA AREA, NAO HA PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PROS: HORARIO AJUSTAVEL, BOA GESTAO DE PESSOAS E ATIVIDADES SETORIZADAS.</t>
+          <t>PROS: TODOS OS BENEFICIOS DE BANCARIOS SAO CONCEDIDOS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SEM HOME OFFICE NA ESCALA.</t>
+          <t>DEPENDENDO DA AREA, NAO HA PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[-0.0144873  -0.00390625 -0.04008721 ... -0.00473012 -0.01181669
-  0.04208991]</t>
+          <t>[-0.02842817 -0.00402645 -0.03947248 ... -0.01187215  0.02365368
+  0.00466867]</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1560,37 +1584,37 @@
         <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>26.27117919921875</v>
+        <v>15.35829544067383</v>
       </c>
       <c r="I28" t="n">
-        <v>7.547661304473877</v>
+        <v>-4.028480529785156</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>ANALISTA DE SOLUCOES II</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIAS ATUALIZADAS, TRABALHO COM MICRO SERVICOS E PESSOAS EXPERIENTES. | CONTRAS: TRABALHO PRESENCIAL E CARGA HORARIA ALTA.</t>
+          <t>PROS: O TIME, COM CERTEZA, E UMA GRANDE VANTAGEM. TEM MUITA GENTE BOA NO INTER. | CONTRAS: NAO HA VISIBILIDADE DE UM PLANO DE DESENVOLVIMENTO DE CARREIRA. ALEM DISSO, AS REESTRUTURACOES (DEMISSOES) QUE VEM OCORRENDO GERAM CERTA INSEGURANCA. DEMANDAS URGENTES QUE VEM DE CIMA E QUE GERAM SOBRECARGA NOS TIMES.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIAS ATUALIZADAS, TRABALHO COM MICRO SERVICOS E PESSOAS EXPERIENTES.</t>
+          <t>PROS: O TIME, COM CERTEZA, E UMA GRANDE VANTAGEM. TEM MUITA GENTE BOA NO INTER.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL E CARGA HORARIA ALTA.</t>
+          <t>NAO HA VISIBILIDADE DE UM PLANO DE DESENVOLVIMENTO DE CARREIRA. ALEM DISSO, AS REESTRUTURACOES (DEMISSOES) QUE VEM OCORRENDO GERAM CERTA INSEGURANCA. DEMANDAS URGENTES QUE VEM DE CIMA E QUE GERAM SOBRECARGA NOS TIMES.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[ 0.00363109  0.01176187 -0.05575768 ...  0.030246   -0.03092512
-  0.02623926]</t>
+          <t>[-0.0281479   0.01252659 -0.03232905 ... -0.01343051  0.0261637
+ -0.01479755]</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1600,37 +1624,37 @@
         <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>8.137801170349121</v>
+        <v>-20.44221687316895</v>
       </c>
       <c r="I29" t="n">
-        <v>2.231987476348877</v>
+        <v>-1.288879156112671</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DEV JUNIOR</t>
+          <t>ANALISTA DE SOLUCOES</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, SALARIO BOM, EQUIPE BOA | CONTRAS: PRESENCIAL TODOS OS DIAS, PARA TODOS.</t>
+          <t>PROS: SALARIO COMPATIVEL AO MERCADO FINANCEIRO. | CONTRAS: FALTA PROGRAMA DE CRESCIMENTO E EVOLUCAO SALARIAL. PLR NUNCA TEM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, SALARIO BOM, EQUIPE BOA</t>
+          <t>PROS: SALARIO COMPATIVEL AO MERCADO FINANCEIRO.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PRESENCIAL TODOS OS DIAS, PARA TODOS.</t>
+          <t>FALTA PROGRAMA DE CRESCIMENTO E EVOLUCAO SALARIAL. PLR NUNCA TEM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[-0.01787235  0.00643799 -0.01736414 ...  0.03730499 -0.04226557
-  0.02513584]</t>
+          <t>[-0.09462182  0.01727812 -0.02582617 ... -0.01134695  0.0033105
+  0.01943767]</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1640,37 +1664,37 @@
         <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>22.08790397644043</v>
+        <v>14.04171371459961</v>
       </c>
       <c r="I30" t="n">
-        <v>-5.527962684631348</v>
+        <v>1.863638281822205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SENIOR IOS DEVELOPER</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROS: BOA INFRAESTRUTURA E AMBIENTE DE TRABALHO (REMOTO) | CONTRAS: COMUNICACAO RUIM E O TRABALHO PRESENCIAL NAO E ATRATIVO PELA REMUNERACAO.</t>
+          <t>PROS: ESTRUTURA DE TRABALHO BOA LOCALIZACAO BOA | CONTRAS: NAO TEM PLANO DE CARREIRA FALTA DE COMUNICACAO COM OS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PROS: BOA INFRAESTRUTURA E AMBIENTE DE TRABALHO (REMOTO)</t>
+          <t>PROS: ESTRUTURA DE TRABALHO BOA LOCALIZACAO BOA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>COMUNICACAO RUIM E O TRABALHO PRESENCIAL NAO E ATRATIVO PELA REMUNERACAO.</t>
+          <t>NAO TEM PLANO DE CARREIRA FALTA DE COMUNICACAO COM OS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[-0.0635911   0.01861419 -0.00722448 ...  0.01519842 -0.01784043
- -0.01213255]</t>
+          <t>[-0.03036717 -0.01024634 -0.03548039 ... -0.00018832  0.01337758
+ -0.01967991]</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1680,37 +1704,37 @@
         <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>16.95841979980469</v>
+        <v>11.78894805908203</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5601875782012939</v>
+        <v>-1.494778156280518</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SQUAD LEADER</t>
+          <t>ENGENHEIRO DE DADOS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROS: PLR BOA, TECNOLOGIA E APRENDIZADO | CONTRAS: 100% PRESENCIAL, METODO DE PAGAMENTO DE PLR AINDA UM POUCO OBSCURO</t>
+          <t>PROS: VR/VA BONS E SALARIO OK | CONTRAS: SEM PLANO DE CARREIRA, MUITA ENROLACAO POR PARTE DOS GESTORES E REGIME TOTALMENTE PRESENCIAL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PROS: PLR BOA, TECNOLOGIA E APRENDIZADO</t>
+          <t>PROS: VR/VA BONS E SALARIO OK</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL, METODO DE PAGAMENTO DE PLR AINDA UM POUCO OBSCURO</t>
+          <t>SEM PLANO DE CARREIRA, MUITA ENROLACAO POR PARTE DOS GESTORES E REGIME TOTALMENTE PRESENCIAL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[-0.04350725 -0.00287309 -0.02427576 ... -0.01688447 -0.03493161
-  0.00302849]</t>
+          <t>[-0.02450395  0.00704765 -0.01301633 ... -0.00221613 -0.01699404
+ -0.01848157]</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1720,41 +1744,37 @@
         <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>21.86142158508301</v>
+        <v>16.29795265197754</v>
       </c>
       <c r="I32" t="n">
-        <v>-12.93775939941406</v>
+        <v>5.607930183410645</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DEV III</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROS: APRENDIZADO CONTINUO
-VL E VR MUITO BONS | CONTRAS: FULL PRESENCIAL
-REFEITORIO NAO E O SUFICIENTE PARA TODOS OS FUNCIONARIOS</t>
+          <t>PROS: MUITOS BENEFICIOS PARA OS FUNCIONARIOS | CONTRAS: NAO RECONHECE BEM OS FUNCIONARIOS. SEM PLANOS DE CARREIRA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PROS: APRENDIZADO CONTINUO
-VL E VR MUITO BONS</t>
+          <t>PROS: MUITOS BENEFICIOS PARA OS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FULL PRESENCIAL
-REFEITORIO NAO E O SUFICIENTE PARA TODOS OS FUNCIONARIOS</t>
+          <t>NAO RECONHECE BEM OS FUNCIONARIOS. SEM PLANOS DE CARREIRA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[-0.010778   -0.03392081 -0.03182153 ...  0.02591266 -0.05815608
-  0.04350714]</t>
+          <t>[-0.03730956 -0.01668297 -0.03723031 ...  0.01483482  0.0106878
+ -0.01403979]</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1764,37 +1784,37 @@
         <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>23.70596504211426</v>
+        <v>18.68895149230957</v>
       </c>
       <c r="I33" t="n">
-        <v>-11.97449493408203</v>
+        <v>-3.904953956604004</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE INVESTIMENTOS</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROS: VALE REFEICAO E ALIMENTACAO ALTO, AMBIENTE LEGAL, MUITO APRENDIZADO | CONTRAS: PRESENCIAL, MAS NO GERAL E BEM BOM</t>
+          <t>PROS: INOVADOR, MUITA TECNOLOGIA E ATUALIDADES | CONTRAS: SEM PLANO DE CARREIRA DEFINIDO.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PROS: VALE REFEICAO E ALIMENTACAO ALTO, AMBIENTE LEGAL, MUITO APRENDIZADO</t>
+          <t>PROS: INOVADOR, MUITA TECNOLOGIA E ATUALIDADES</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PRESENCIAL, MAS NO GERAL E BEM BOM</t>
+          <t>SEM PLANO DE CARREIRA DEFINIDO.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[ 0.00030224 -0.01368882 -0.04453738 ...  0.02075723 -0.03951803
- -0.03395725]</t>
+          <t>[-0.04658868  0.00896034 -0.0312462  ... -0.00667747  0.00690194
+  0.01087684]</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1804,41 +1824,37 @@
         <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>20.72559356689453</v>
+        <v>13.70134449005127</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.940166711807251</v>
+        <v>-3.655217885971069</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ESPECIALISTA ANDROID DEVELOPER</t>
+          <t>UX PRODUCT DESIGNER JR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROS: SALARIO MUITO BOM
-EQUIPE AGRADAVEL DE TRABALHAR | CONTRAS: 100% PRESENCIAL
-DECISOES QUE NAO PENSAM NOS FUNCIONARIOS</t>
+          <t>PROS: BENEFICIOS, CONTRATO, PLANO DE SAUDE | CONTRAS: OBJETIVOS, PLANO DE CARREIRA, CULTURA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PROS: SALARIO MUITO BOM
-EQUIPE AGRADAVEL DE TRABALHAR</t>
+          <t>PROS: BENEFICIOS, CONTRATO, PLANO DE SAUDE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL
-DECISOES QUE NAO PENSAM NOS FUNCIONARIOS</t>
+          <t>OBJETIVOS, PLANO DE CARREIRA, CULTURA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[-0.02801224 -0.00712489 -0.04093913 ...  0.01233824 -0.01299394
- -0.01588033]</t>
+          <t>[-0.0340329  -0.02915921 -0.05058742 ... -0.0086777   0.01490169
+ -0.00538163]</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1848,37 +1864,37 @@
         <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>17.2629566192627</v>
+        <v>11.96059894561768</v>
       </c>
       <c r="I35" t="n">
-        <v>-6.91491174697876</v>
+        <v>-11.70650005340576</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ANALYST</t>
+          <t>ANALISTA DE ANTIFRAUDE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO E BENEFICIOS COMO PPR | CONTRAS: SEM HOME OFFICE NO MOMENTO</t>
+          <t>PROS: . BENEFICIOS VA E VR . PLANO DE SAUDE | CONTRAS: . SEM HOMEOFFICE . FALTA DE PLANO DE CARREIRA . DEMORA EM PROMOVER OS FUNCIONARIOS . GESTARES DESQUALIFICADOS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO E BENEFICIOS COMO PPR</t>
+          <t>PROS: . BENEFICIOS VA E VR . PLANO DE SAUDE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SEM HOME OFFICE NO MOMENTO</t>
+          <t>. SEM HOMEOFFICE . FALTA DE PLANO DE CARREIRA . DEMORA EM PROMOVER OS FUNCIONARIOS . GESTARES DESQUALIFICADOS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[-0.02944578  0.0173924  -0.02663165 ... -0.0101181  -0.07891993
- -0.01868301]</t>
+          <t>[-0.07316014  0.01503977 -0.03692727 ... -0.01892196 -0.00116569
+ -0.02895473]</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1888,37 +1904,37 @@
         <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>25.99502372741699</v>
+        <v>-23.84688377380371</v>
       </c>
       <c r="I36" t="n">
-        <v>8.146393775939941</v>
+        <v>2.445403099060059</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO. VALES DE ALIMENTACAO E REFEICAO SAO BONS. | CONTRAS: DEU FIM AO TRABALHO HOME OFFICE.</t>
+          <t>PROS: FLEXIBILIDADE DE HORARIO BENEFICIOS - VA, VR | CONTRAS: SEM PLANO DE CARREIRA SEM HOME OFFICE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO. VALES DE ALIMENTACAO E REFEICAO SAO BONS.</t>
+          <t>PROS: FLEXIBILIDADE DE HORARIO BENEFICIOS - VA, VR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DEU FIM AO TRABALHO HOME OFFICE.</t>
+          <t>SEM PLANO DE CARREIRA SEM HOME OFFICE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[-0.00751774 -0.0080816  -0.05902507 ... -0.00833176 -0.0856968
-  0.02625751]</t>
+          <t>[-0.03212108 -0.00489129 -0.0227904  ... -0.01010803 -0.03826122
+  0.01391111]</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1928,37 +1944,37 @@
         <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>30.44338989257812</v>
+        <v>28.93170166015625</v>
       </c>
       <c r="I37" t="n">
-        <v>7.625448703765869</v>
+        <v>-11.05152320861816</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>DEV I</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA ATUALIZADA, SEMPRE MEXENDO COM TECNOLOGIAS NOVAS. | CONTRAS: DIFICIL PROMOCAO, MUITA BUROCRACIA, TODO FIM DE ANO VOLTAM PRESENCIAL.</t>
+          <t>PROS: AMBIENTE BOM, BONS BENEFICIOS E SALARIOS | CONTRAS: FALTA DE PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA ATUALIZADA, SEMPRE MEXENDO COM TECNOLOGIAS NOVAS.</t>
+          <t>PROS: AMBIENTE BOM, BONS BENEFICIOS E SALARIOS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DIFICIL PROMOCAO, MUITA BUROCRACIA, TODO FIM DE ANO VOLTAM PRESENCIAL.</t>
+          <t>FALTA DE PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[-0.01602102  0.00126419  0.01252013 ... -0.00280203 -0.0302542
-  0.05500225]</t>
+          <t>[-0.03353021  0.00106608 -0.03146442 ... -0.00215767 -0.00696714
+  0.01181659]</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1968,43 +1984,37 @@
         <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>13.67497825622559</v>
+        <v>13.2783899307251</v>
       </c>
       <c r="I38" t="n">
-        <v>-9.226925849914551</v>
+        <v>-5.191802978515625</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ASSISTENTE JURIDICO</t>
+          <t>ASSESSOR DE INVESTIMENTOS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROS: PONTOS POSITIVOS : ORGANIZACAO E PERSPECTIVA DE CRESCIMENTO | CONTRAS: ENGESSADO
-POUCO INCLUSIVO
-PRESENCIAL
-HOSTIL</t>
+          <t>PROS: OPORTUNIZAM PESSOAS SEM MUITA EXPERIENCIA ESPECIFICA, ESCUTAM BASTANTE OS FUNCIONARIOS, COBRANCA CONSCIENTE. | CONTRAS: NAO EXISTE REMUNERACAO VARIAVEL NEM PROGRESSAO DE CARREIRA, A EMPRESA VIVE EM PROL DE TROCAR O PNEU COM O CARRO ANDANDO, NADA E ORGANIZADO, NADA E PLANEJADO COM A DEVIDA ANTECEDENCIA.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PROS: PONTOS POSITIVOS : ORGANIZACAO E PERSPECTIVA DE CRESCIMENTO</t>
+          <t>PROS: OPORTUNIZAM PESSOAS SEM MUITA EXPERIENCIA ESPECIFICA, ESCUTAM BASTANTE OS FUNCIONARIOS, COBRANCA CONSCIENTE.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ENGESSADO
-POUCO INCLUSIVO
-PRESENCIAL
-HOSTIL</t>
+          <t>NAO EXISTE REMUNERACAO VARIAVEL NEM PROGRESSAO DE CARREIRA, A EMPRESA VIVE EM PROL DE TROCAR O PNEU COM O CARRO ANDANDO, NADA E ORGANIZADO, NADA E PLANEJADO COM A DEVIDA ANTECEDENCIA.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[ 0.00894576 -0.00388305  0.02473573 ... -0.00192661 -0.05435414
-  0.01708661]</t>
+          <t>[-0.0557252   0.00644441  0.00757176 ...  0.00079207 -0.02027804
+  0.01750491]</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2014,43 +2024,37 @@
         <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>28.16965103149414</v>
+        <v>17.35861587524414</v>
       </c>
       <c r="I39" t="n">
-        <v>-13.86838626861572</v>
+        <v>-0.6059395670890808</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ANALISTA CX</t>
+          <t>ANALISTA DE NEGOCIOS PLENO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, ALGUMAS PESSOAS
-SINDICATO
-MUITAS COISAS BOAS | CONTRAS: AMBIENTE DAS PESSOAS
-SEM HOME OFFICE</t>
+          <t>PROS: AMBIENTE DE MUITOS DESAFIOS E APRENDIZADOS | CONTRAS: NAO TEM PLANO DE DESENVOLVIMENTO, PROMOCOES NAO ACONTECEM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, ALGUMAS PESSOAS
-SINDICATO
-MUITAS COISAS BOAS</t>
+          <t>PROS: AMBIENTE DE MUITOS DESAFIOS E APRENDIZADOS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AMBIENTE DAS PESSOAS
-SEM HOME OFFICE</t>
+          <t>NAO TEM PLANO DE DESENVOLVIMENTO, PROMOCOES NAO ACONTECEM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[-0.01684366  0.00100497 -0.07823515 ... -0.00793744 -0.07085627
- -0.03130072]</t>
+          <t>[-0.02023727  0.00096294 -0.02381622 ... -0.00475877  0.02008811
+ -0.01817007]</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2060,37 +2064,37 @@
         <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>24.8978443145752</v>
+        <v>12.92289924621582</v>
       </c>
       <c r="I40" t="n">
-        <v>8.188473701477051</v>
+        <v>1.293571829795837</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ANALISTA PLD JR.</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA TRABALHAR E UM PREDIO LINDO | CONTRAS: EXISTE MUITA PANELINHA LA DENTRO E PRESENCIAL 100%</t>
+          <t>PROS: AMBIENTE OTIMO, SEM MUITA COBRANCA. | CONTRAS: PL BAIXA, CERCA DE 1 SALARIO. NAO POSSUI PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA TRABALHAR E UM PREDIO LINDO</t>
+          <t>PROS: AMBIENTE OTIMO, SEM MUITA COBRANCA.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EXISTE MUITA PANELINHA LA DENTRO E PRESENCIAL 100%</t>
+          <t>PL BAIXA, CERCA DE 1 SALARIO. NAO POSSUI PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[-0.01021104 -0.00791429 -0.07070427 ...  0.0288446  -0.03560557
-  0.01936547]</t>
+          <t>[-0.05117989  0.01027628 -0.07945871 ...  0.01777121  0.00812272
+ -0.02310559]</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2100,37 +2104,37 @@
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>24.4049186706543</v>
+        <v>15.84555339813232</v>
       </c>
       <c r="I41" t="n">
-        <v>-8.554875373840332</v>
+        <v>1.212673902511597</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, CULTURA, TIME, STACKS | CONTRAS: RH NAO E MUITO PROXIMO, FOI UMAS DAS PRIMEIRAS EMPRESAS NO BRASIL A TENTAR VOLTAR PARA O ESCRITORIO.</t>
+          <t>PROS: TECNOLOGIAS NOVAS, EQUIPE AJUDA MUITO. | CONTRAS: PAGA POUCO E MUITA PRESSAO. NAO EXISTE PLANO DE CARREIRA. 1 ANO PRA FAZER 1:1... ABSURDO!</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, CULTURA, TIME, STACKS</t>
+          <t>PROS: TECNOLOGIAS NOVAS, EQUIPE AJUDA MUITO.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RH NAO E MUITO PROXIMO, FOI UMAS DAS PRIMEIRAS EMPRESAS NO BRASIL A TENTAR VOLTAR PARA O ESCRITORIO.</t>
+          <t>PAGA POUCO E MUITA PRESSAO. NAO EXISTE PLANO DE CARREIRA. 1 ANO PRA FAZER 1:1... ABSURDO!</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[-0.02452936  0.05529533  0.00593045 ...  0.01231852 -0.03857494
-  0.00633162]</t>
+          <t>[-0.03256531  0.01091283 -0.04852659 ... -0.02216491 -0.03891827
+  0.00291276]</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2140,37 +2144,37 @@
         <v>5</v>
       </c>
       <c r="H42" t="n">
-        <v>37.15058898925781</v>
+        <v>15.24250793457031</v>
       </c>
       <c r="I42" t="n">
-        <v>-9.488506317138672</v>
+        <v>-0.2314430177211761</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CONSULTOR DE CREDITO IMOBILIARIO</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E AMBIENTE DE TRABALHO AGRADAVEL | CONTRAS: INDEFINICAO ENTRE FORMATO DE TRABALHO HIBRIDO E PRESENCIAL</t>
+          <t>PROS: AMBIENTE DINAMICO E POSSIBILIDADE DE APRENDIZADO | CONTRAS: FALTA DE PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E AMBIENTE DE TRABALHO AGRADAVEL</t>
+          <t>PROS: AMBIENTE DINAMICO E POSSIBILIDADE DE APRENDIZADO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>INDEFINICAO ENTRE FORMATO DE TRABALHO HIBRIDO E PRESENCIAL</t>
+          <t>FALTA DE PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[-0.02797371 -0.02313296 -0.02991615 ...  0.01230501 -0.05130238
-  0.02245873]</t>
+          <t>[-0.03353021  0.00106608 -0.03146442 ... -0.00215767 -0.00696714
+  0.01181659]</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2180,37 +2184,37 @@
         <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>28.5828857421875</v>
+        <v>13.2783899307251</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3220381736755371</v>
+        <v>-5.191802978515625</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DEV PLENO</t>
+          <t>ASSISTENTE DE SUCESSO DO CLIENTE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIA ATUAL, BOM PRA QUEM NAO GOSTA DE TRABALHAR COM LEGADO | CONTRAS: VOLTARAM AO REGIME PRESENCIAL RECENTEMENTE</t>
+          <t>PROS: EMPRESA COM BOM CLIMA ORGANIZACIONAL E BONS BENEFICIOS. | CONTRAS: FALTA DE DEFINICAO SOBRE PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIA ATUAL, BOM PRA QUEM NAO GOSTA DE TRABALHAR COM LEGADO</t>
+          <t>PROS: EMPRESA COM BOM CLIMA ORGANIZACIONAL E BONS BENEFICIOS.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VOLTARAM AO REGIME PRESENCIAL RECENTEMENTE</t>
+          <t>FALTA DE DEFINICAO SOBRE PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[ 0.01611797  0.01080743 -0.037294   ... -0.01419023 -0.06588516
- -0.03491707]</t>
+          <t>[-0.036652   -0.01292429 -0.0344258  ... -0.02318338  0.02607229
+  0.00074452]</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2220,37 +2224,37 @@
         <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>21.26162719726562</v>
+        <v>14.0400390625</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7379851937294006</v>
+        <v>-5.674681186676025</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ESPECIALISTA JAVA</t>
+          <t>AGENTE DE NEGOCIOS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM BOM AMBIENTE DE TRABALHO SALARIO COMPETITIVO | CONTRAS: A EMPRESA ESTA AOS POUCOS REMOVENDO TRABALHO REMOTO, E DANDO PREFERENCIA AO MODELO PRESENCIAL</t>
+          <t>PROS: OTIMOS BENEFICIOS E AMBIENTE LEVE | CONTRAS: SEM PROGRESSAO DE CARREIRA, SOMENTE PROS BAJULADORES.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM BOM AMBIENTE DE TRABALHO SALARIO COMPETITIVO</t>
+          <t>PROS: OTIMOS BENEFICIOS E AMBIENTE LEVE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A EMPRESA ESTA AOS POUCOS REMOVENDO TRABALHO REMOTO, E DANDO PREFERENCIA AO MODELO PRESENCIAL</t>
+          <t>SEM PROGRESSAO DE CARREIRA, SOMENTE PROS BAJULADORES.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[-0.03676634  0.01169682 -0.02794434 ...  0.01770367 -0.07985572
-  0.00353923]</t>
+          <t>[-0.07694758 -0.00046812 -0.06714206 ... -0.00169618 -0.00110293
+  0.01007235]</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2260,37 +2264,37 @@
         <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>24.09136390686035</v>
+        <v>11.2133617401123</v>
       </c>
       <c r="I45" t="n">
-        <v>1.523797154426575</v>
+        <v>2.126827001571655</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR ESPECIALISTA</t>
+          <t>DEV 2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHO, COLEGAS QUE SE DAO BEM. | CONTRAS: IMPOSSIBILIDADE DE TRABALHO REMOTO. SOMENTE HIBRIDO OU PRESENCIAL.</t>
+          <t>PROS: TRANQUILA E SEM MUITA AGONIA | CONTRAS: NAO TEM PLANO DE CARREIRA BEM DEFINIDO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHO, COLEGAS QUE SE DAO BEM.</t>
+          <t>PROS: TRANQUILA E SEM MUITA AGONIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>IMPOSSIBILIDADE DE TRABALHO REMOTO. SOMENTE HIBRIDO OU PRESENCIAL.</t>
+          <t>NAO TEM PLANO DE CARREIRA BEM DEFINIDO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[-0.0061265   0.0424964   0.00132409 ...  0.02722853 -0.05162622
-  0.00306863]</t>
+          <t>[-0.02643432 -0.00140762 -0.03378791 ... -0.0161368   0.02001998
+ -0.01518095]</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2300,37 +2304,37 @@
         <v>5</v>
       </c>
       <c r="H46" t="n">
-        <v>27.9151554107666</v>
+        <v>16.14220428466797</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9920905232429504</v>
+        <v>-3.548380851745605</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE SOFTWARE</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM, VA E VR ALTOS E OTIMO AMBIENTE DE TRABALHO | CONTRAS: NAO ADERIR 100% HOME OFFICE PARA QUEM DESEJA</t>
+          <t>PROS: MUITA INOVACAO, ABERTOS A MELHORIAS E SUGESTOES. BOM DIALOGO COM SUPERIORES. | CONTRAS: NAO TEM PLANO DE CARREIRA BEM DEFINIDO.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM, VA E VR ALTOS E OTIMO AMBIENTE DE TRABALHO</t>
+          <t>PROS: MUITA INOVACAO, ABERTOS A MELHORIAS E SUGESTOES. BOM DIALOGO COM SUPERIORES.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NAO ADERIR 100% HOME OFFICE PARA QUEM DESEJA</t>
+          <t>NAO TEM PLANO DE CARREIRA BEM DEFINIDO.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[-0.0176176   0.00220679 -0.04976745 ... -0.01403018 -0.08203598
-  0.00976108]</t>
+          <t>[-0.03359696  0.0036786  -0.04268498 ... -0.00997375  0.01508847
+ -0.0133698 ]</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2340,37 +2344,37 @@
         <v>5</v>
       </c>
       <c r="H47" t="n">
-        <v>26.18310928344727</v>
+        <v>14.69293785095215</v>
       </c>
       <c r="I47" t="n">
-        <v>11.69650936126709</v>
+        <v>-2.518385410308838</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUCESSO DO CLIENTE</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOA GESTAO, OPORTUNIDADES | CONTRAS: AUSENCIA DE HOME OFFICE, METAS, PL BAIXA</t>
+          <t>PROS: OS BENEFICIOS E CLIMA ORGANIZACIONAL SAO OS MAIORES ATRATIVOS. ALEM DE TERMOS REAJUSTES QUE NA MAIORIA DAS VEZES SUPERAM A INFLACAO, GANHO REAL. | CONTRAS: O PRINCIPAL PONTO NEGATIVO E A FALTA DE PLANO DE CARREIRA. NAO DA MOTIVACAO PARA SEGUIR. A FALTA DE OPORTUNIDADES DE CRESCIMENTO TAMBEM...</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOA GESTAO, OPORTUNIDADES</t>
+          <t>PROS: OS BENEFICIOS E CLIMA ORGANIZACIONAL SAO OS MAIORES ATRATIVOS. ALEM DE TERMOS REAJUSTES QUE NA MAIORIA DAS VEZES SUPERAM A INFLACAO, GANHO REAL.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AUSENCIA DE HOME OFFICE, METAS, PL BAIXA</t>
+          <t>O PRINCIPAL PONTO NEGATIVO E A FALTA DE PLANO DE CARREIRA. NAO DA MOTIVACAO PARA SEGUIR. A FALTA DE OPORTUNIDADES DE CRESCIMENTO TAMBEM...</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[-0.02494424 -0.01219768 -0.07671119 ...  0.00949674 -0.04595485
- -0.0012539 ]</t>
+          <t>[-0.04471892  0.0027168  -0.0302199  ... -0.00994564  0.01570953
+  0.01683408]</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2380,37 +2384,37 @@
         <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>24.3580207824707</v>
+        <v>-22.72665405273438</v>
       </c>
       <c r="I48" t="n">
-        <v>7.883640289306641</v>
+        <v>-0.347239077091217</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE DEVELOPER</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROS: FLEXIBILIDADE, SALARIO, BONUS, VR, PROJETOS LEGAIS | CONTRAS: PRESENCIAL, RH, MUDANCAS REPENTINAS DA ALTA GESTAO</t>
+          <t>PROS: AMBIENTE DISCONTRAIDO, BONS COLEGAS DE EQUIPE, OPORTUNIDADE DE CONHECER VARIAS DAS AREAS DE NEGOCIO DA EMPRESA, GRANDES CHANCES DE EFETIVACAO E POSSIBILIDADES DE CRESCIMENTO. | CONTRAS: AUSENCIA DE UM PLANO DE CARREIRA ESTRUTURADO E BEM ESTABELECIDO. DEPENDENDO DO CARGO, OS SALARIOS SAO UM POUCO INFERIORES AOS PRATICADOS NO MERCADO POR OUTRAS EMPRESAS DO MESMO SEGMENTO.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PROS: FLEXIBILIDADE, SALARIO, BONUS, VR, PROJETOS LEGAIS</t>
+          <t>PROS: AMBIENTE DISCONTRAIDO, BONS COLEGAS DE EQUIPE, OPORTUNIDADE DE CONHECER VARIAS DAS AREAS DE NEGOCIO DA EMPRESA, GRANDES CHANCES DE EFETIVACAO E POSSIBILIDADES DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PRESENCIAL, RH, MUDANCAS REPENTINAS DA ALTA GESTAO</t>
+          <t>AUSENCIA DE UM PLANO DE CARREIRA ESTRUTURADO E BEM ESTABELECIDO. DEPENDENDO DO CARGO, OS SALARIOS SAO UM POUCO INFERIORES AOS PRATICADOS NO MERCADO POR OUTRAS EMPRESAS DO MESMO SEGMENTO.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[-0.029526    0.01786759 -0.00287653 ...  0.02043194 -0.03840799
-  0.00841968]</t>
+          <t>[-0.06748341  0.00948522 -0.06912205 ...  0.01882972 -0.00608756
+ -0.00761004]</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2420,37 +2424,37 @@
         <v>5</v>
       </c>
       <c r="H49" t="n">
-        <v>12.53039073944092</v>
+        <v>-22.30471038818359</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.552124738693237</v>
+        <v>2.181413173675537</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BUSINESS INTELLIGENCE ANALYST</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROS: * CULTURA, * VALE ALIMENTACAO E REFEICAO | CONTRAS: * TRABALHO PRESENCIAL, INFELIZMENTE O INTER NAO ADOTA O MODELO HIBRIDO DE TRABALHO.</t>
+          <t>PROS: AMBIENTE LEVE, BONS BENEFICIOS, MAS SAO OBRIGATORIOS DO SINDICATO DOS BANCARIOS. | CONTRAS: SALARIOS BEM ABAIXO DO MERCADO, DECISOES TOP DOWN, NAO OFERECE PLANO DE CARREIRA, TAMPOUCO OPORTUNIDADE DE CRESCIMENTO. ESTRUTURA COMPLETAMENTE ENGESSADA.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PROS: * CULTURA, * VALE ALIMENTACAO E REFEICAO</t>
+          <t>PROS: AMBIENTE LEVE, BONS BENEFICIOS, MAS SAO OBRIGATORIOS DO SINDICATO DOS BANCARIOS.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>* TRABALHO PRESENCIAL, INFELIZMENTE O INTER NAO ADOTA O MODELO HIBRIDO DE TRABALHO.</t>
+          <t>SALARIOS BEM ABAIXO DO MERCADO, DECISOES TOP DOWN, NAO OFERECE PLANO DE CARREIRA, TAMPOUCO OPORTUNIDADE DE CRESCIMENTO. ESTRUTURA COMPLETAMENTE ENGESSADA.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[-0.01669043  0.01544436 -0.03681854 ...  0.03294783 -0.03137436
-  0.0255557 ]</t>
+          <t>[-0.05027971  0.01188959 -0.04992315 ... -0.00043642  0.01415232
+ -0.02136035]</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2460,37 +2464,37 @@
         <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>29.1818733215332</v>
+        <v>-20.60784912109375</v>
       </c>
       <c r="I50" t="n">
-        <v>1.305000424385071</v>
+        <v>3.151699066162109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROS: CLIMA E BENEFICIOS SALARIO PESSOAS LOCAL | CONTRAS: MODELO PRESENCIAL NAO E O IDEAL</t>
+          <t>PROS: TICKET ALIMENTACAO E REFEICAO. EQUIPE MUITO GENTE BOA. | CONTRAS: FALTA DE DIALOGO NO BANCO NAO TEM PLANO DE CARREIRA. PLANO DE SAUDE CARO (CO-PARTICIPATIVO). TEM QUE SER PUXA SACO PARA CONSEGUIR ALGO.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PROS: CLIMA E BENEFICIOS SALARIO PESSOAS LOCAL</t>
+          <t>PROS: TICKET ALIMENTACAO E REFEICAO. EQUIPE MUITO GENTE BOA.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MODELO PRESENCIAL NAO E O IDEAL</t>
+          <t>FALTA DE DIALOGO NO BANCO NAO TEM PLANO DE CARREIRA. PLANO DE SAUDE CARO (CO-PARTICIPATIVO). TEM QUE SER PUXA SACO PARA CONSEGUIR ALGO.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[-0.02130434 -0.01228214 -0.02957812 ...  0.02286534 -0.04956627
- -0.01770853]</t>
+          <t>[ 0.01283749 -0.01448384 -0.03492486 ... -0.00325893  0.00271879
+ -0.00963813]</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2500,37 +2504,37 @@
         <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>26.89079093933105</v>
+        <v>19.25762939453125</v>
       </c>
       <c r="I51" t="n">
-        <v>-2.649661540985107</v>
+        <v>-9.46256160736084</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IT ANALYST</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROS: INCENTIVADORA, EVOLUCAO, EQUIDADE, FLEXIBILIDADE, APOIO | CONTRAS: DISTANTE, NAO OFERECE HOME OFFICE</t>
+          <t>PROS: CLIMA DE TRABALHO EM ALGUNS SETORES. | CONTRAS: NAO POSSUI PLANO DE CARREIRA E MUITOS SAO BENEFICIADOS POR CLASSE SOCIAL OU AMIZADES. A MAIORIA DOS SETORES NAO INVESTEM NA CARREIRA DE CONHECIMENTO DOS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PROS: INCENTIVADORA, EVOLUCAO, EQUIDADE, FLEXIBILIDADE, APOIO</t>
+          <t>PROS: CLIMA DE TRABALHO EM ALGUNS SETORES.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DISTANTE, NAO OFERECE HOME OFFICE</t>
+          <t>NAO POSSUI PLANO DE CARREIRA E MUITOS SAO BENEFICIADOS POR CLASSE SOCIAL OU AMIZADES. A MAIORIA DOS SETORES NAO INVESTEM NA CARREIRA DE CONHECIMENTO DOS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[-0.00903472 -0.0430213  -0.03302381 ... -0.00499433 -0.04782555
- -0.06385677]</t>
+          <t>[-0.06011446  0.00083278 -0.03642856 ...  0.00372095  0.00678295
+  0.00721334]</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2540,37 +2544,37 @@
         <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>27.41132736206055</v>
+        <v>11.17698764801025</v>
       </c>
       <c r="I52" t="n">
-        <v>12.94896697998047</v>
+        <v>0.2993076741695404</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE SUCESSO DO CLIENTE</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROS: FORNECEM MUITOS MIMOS E BENEFICIOS PARA OS FUNCIONARIOS, COMO CARTAO BLACK E ASSINATURA DO DUO GOURMET, SORVETE EM UMA DATA COMEMORATIVA, GIFT CARD, ETC. ALEM DISSO, O VR E MUITO BOM. | CONTRAS: NAO ADERIREM A MODALIDADE HIBRIDA OU TOTALMENTE REMOTA POS PANDEMIA. O SERVICO PODE TRANQUILAMENTE SER FEITO DE FORMA REMOTA, ASSIM COMO FOI DURANTE A PANDEMIA, SEM NENHUM PREJUIZO.</t>
+          <t>PROS: CLIMA BOM DE TRABALHO, PESSOAS EXTROVERTIDAS E AMIGAS. BOA ESTRUTURA E INVESTIMENTOS. EMPRESA CRESCIMENTO EXPONENCIAL, ABRINDO GRANDES MERCADOS. | CONTRAS: PLANO DE CARREIRA NAO E BOM, NAO SENDO MUITAS VEZES MOTIVADOR AOS FUNCIONARIOS. EMPRESA EM CRESCIMENTO, NECESSITANDO DE FOCO NA AREA DE CARREIRA.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PROS: FORNECEM MUITOS MIMOS E BENEFICIOS PARA OS FUNCIONARIOS, COMO CARTAO BLACK E ASSINATURA DO DUO GOURMET, SORVETE EM UMA DATA COMEMORATIVA, GIFT CARD, ETC. ALEM DISSO, O VR E MUITO BOM.</t>
+          <t>PROS: CLIMA BOM DE TRABALHO, PESSOAS EXTROVERTIDAS E AMIGAS. BOA ESTRUTURA E INVESTIMENTOS. EMPRESA CRESCIMENTO EXPONENCIAL, ABRINDO GRANDES MERCADOS.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NAO ADERIREM A MODALIDADE HIBRIDA OU TOTALMENTE REMOTA POS PANDEMIA. O SERVICO PODE TRANQUILAMENTE SER FEITO DE FORMA REMOTA, ASSIM COMO FOI DURANTE A PANDEMIA, SEM NENHUM PREJUIZO.</t>
+          <t>PLANO DE CARREIRA NAO E BOM, NAO SENDO MUITAS VEZES MOTIVADOR AOS FUNCIONARIOS. EMPRESA EM CRESCIMENTO, NECESSITANDO DE FOCO NA AREA DE CARREIRA.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[-0.0048904   0.02640477 -0.02015734 ...  0.00309795 -0.0738818
-  0.01202965]</t>
+          <t>[-0.03926229  0.00171276 -0.04768047 ...  0.02287152  0.02462114
+ -0.01147456]</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2580,37 +2584,37 @@
         <v>5</v>
       </c>
       <c r="H53" t="n">
-        <v>31.56871795654297</v>
+        <v>-22.02390480041504</v>
       </c>
       <c r="I53" t="n">
-        <v>-5.50385046005249</v>
+        <v>-1.708040237426758</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FRONTEND DEVELOPER</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO AMIGAVEL NA MINHA GESTAO. | CONTRAS: REGIME "HIBRIDO" PRESENCIAL, ONDE A GENTE TEM QUE IR PARA A EMPRESA NO MINIMO 3X NA SEMANA</t>
+          <t>PROS: AMBIENTE EXCEPCIONAL QUE PROPOE MUITO APRENDIZADO, OTIMA EMPRESA COM GRANDE POTENCIAL E MUITOS DESAFIOS. | CONTRAS: NAO TEM PLANO DE CARREIRA E OS SALARIOS SAO INFERIORES A MEDIA DE MERCADO.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO AMIGAVEL NA MINHA GESTAO.</t>
+          <t>PROS: AMBIENTE EXCEPCIONAL QUE PROPOE MUITO APRENDIZADO, OTIMA EMPRESA COM GRANDE POTENCIAL E MUITOS DESAFIOS.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>REGIME "HIBRIDO" PRESENCIAL, ONDE A GENTE TEM QUE IR PARA A EMPRESA NO MINIMO 3X NA SEMANA</t>
+          <t>NAO TEM PLANO DE CARREIRA E OS SALARIOS SAO INFERIORES A MEDIA DE MERCADO.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[-0.02016704  0.00849408 -0.02590217 ...  0.05731423 -0.04219189
-  0.01139898]</t>
+          <t>[-0.05248367  0.02170921 -0.05402691 ...  0.01269825 -0.00765501
+ -0.02222394]</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2620,37 +2624,37 @@
         <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>28.58395385742188</v>
+        <v>14.47414684295654</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.5872641205787659</v>
+        <v>0.7586381435394287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO E TICKET SUPERIORES A MEDIA DO MERCADO | CONTRAS: TRABALHO, EM REGRA, 100% PRESENCIAL.</t>
+          <t>PROS: AMBIENTE AGRADAVEL E EMPRESA QUE APOIA A DIVERSIDADE. | CONTRAS: NAO HA PLANO DE CARREIRA E VOCE PODE FICAR ESTAGNADO SE NAO TEM INDICACOES DE ALGUEM IMPORTANTE.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO E TICKET SUPERIORES A MEDIA DO MERCADO</t>
+          <t>PROS: AMBIENTE AGRADAVEL E EMPRESA QUE APOIA A DIVERSIDADE.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TRABALHO, EM REGRA, 100% PRESENCIAL.</t>
+          <t>NAO HA PLANO DE CARREIRA E VOCE PODE FICAR ESTAGNADO SE NAO TEM INDICACOES DE ALGUEM IMPORTANTE.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[-0.01095673  0.00585248 -0.05050302 ...  0.01934971 -0.02732784
-  0.01088443]</t>
+          <t>[-0.00859695  0.02398951 -0.01760398 ... -0.01638462  0.0052849
+ -0.02176169]</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2660,37 +2664,37 @@
         <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>23.20196533203125</v>
+        <v>12.99465179443359</v>
       </c>
       <c r="I55" t="n">
-        <v>-6.352187633514404</v>
+        <v>-0.6590552926063538</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ANALISTA COMPLIANCE PL</t>
+          <t>ANALISTA DE PRODUTOS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, ESTRUTURA, LOCALIZACAO, SALARIO . | CONTRAS: SER 100% PRESENCIAL, ELEVADORES, .</t>
+          <t>PROS: AMBIENTE, CLIMA, BENEFICIOS E PESSOAS | CONTRAS: PLANO DE CARREIRA POUCO ESTRUTURADO E EMPRESA COM POUCA CULTURA DE PRODUTO, AREA DE UX SOBRECARREGADA.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, ESTRUTURA, LOCALIZACAO, SALARIO .</t>
+          <t>PROS: AMBIENTE, CLIMA, BENEFICIOS E PESSOAS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SER 100% PRESENCIAL, ELEVADORES, .</t>
+          <t>PLANO DE CARREIRA POUCO ESTRUTURADO E EMPRESA COM POUCA CULTURA DE PRODUTO, AREA DE UX SOBRECARREGADA.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[-0.00590224 -0.01635947 -0.03692302 ...  0.02030727  0.00050024
-  0.03071524]</t>
+          <t>[-0.06801471  0.0003622  -0.02750239 ...  0.00896585  0.00528656
+  0.00062615]</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2700,37 +2704,37 @@
         <v>5</v>
       </c>
       <c r="H56" t="n">
-        <v>22.788330078125</v>
+        <v>10.89173030853271</v>
       </c>
       <c r="I56" t="n">
-        <v>-7.177719116210938</v>
+        <v>-6.267199039459229</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE SAUDAVEL, PAGAMENTO EM DIA, VALE REFEICAO E ALIMENTACAO MUITO BONS | CONTRAS: PRESENCIAL, MUITAS DECISOES TOP DOWN SEM PLANEJAMENTO</t>
+          <t>PROS: HORARIO FLEXIVEL, AMBIENTE AMIGAVEL E ACOLHEDOR. | CONTRAS: SEM PLANO DE CARREIRA BEM DEFINIDO, POUCA EXPECTATIVA DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE SAUDAVEL, PAGAMENTO EM DIA, VALE REFEICAO E ALIMENTACAO MUITO BONS</t>
+          <t>PROS: HORARIO FLEXIVEL, AMBIENTE AMIGAVEL E ACOLHEDOR.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PRESENCIAL, MUITAS DECISOES TOP DOWN SEM PLANEJAMENTO</t>
+          <t>SEM PLANO DE CARREIRA BEM DEFINIDO, POUCA EXPECTATIVA DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[-0.00155248  0.00417445 -0.0323936  ... -0.01322622  0.01064199
-  0.00918604]</t>
+          <t>[-0.06487819  0.01712109 -0.04473598 ...  0.01030571  0.00681893
+ -0.00243461]</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2740,37 +2744,37 @@
         <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>16.88372421264648</v>
+        <v>12.35611248016357</v>
       </c>
       <c r="I57" t="n">
-        <v>-7.346287250518799</v>
+        <v>-2.483637094497681</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ADVISOR</t>
+          <t>DESENVOLVEDOR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE AGRADAVEL, ESTRUTURA EXCELENTE, OTIMA CULTURA | CONTRAS: 100% PRESENCIAL PARA UM BANCO DIGITAL COMECANDO A COLOCAR METAS ALTAS COMO BANCOS CONVENCIONAIS</t>
+          <t>PROS: SALARIO, BENEFICIOS, APRENDIZADO COM NOVAS TECNOLOGIAS. | CONTRAS: PLANO DE CARREIRA BEM OBSCURO, ALGUNS FUNCIONARIOS NAO ACEITAM OPINIOES DIVERGENTES.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE AGRADAVEL, ESTRUTURA EXCELENTE, OTIMA CULTURA</t>
+          <t>PROS: SALARIO, BENEFICIOS, APRENDIZADO COM NOVAS TECNOLOGIAS.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL PARA UM BANCO DIGITAL COMECANDO A COLOCAR METAS ALTAS COMO BANCOS CONVENCIONAIS</t>
+          <t>PLANO DE CARREIRA BEM OBSCURO, ALGUNS FUNCIONARIOS NAO ACEITAM OPINIOES DIVERGENTES.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[-0.01730546 -0.04033493 -0.04737912 ...  0.01170828 -0.03661618
- -0.01998857]</t>
+          <t>[-0.02539972 -0.01074835 -0.05071803 ...  0.0075168   0.02723501
+ -0.00352405]</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2780,37 +2784,37 @@
         <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>25.2011833190918</v>
+        <v>9.191520690917969</v>
       </c>
       <c r="I58" t="n">
-        <v>-7.13858699798584</v>
+        <v>-3.064334630966187</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DEV I</t>
+          <t>ANALISTA DE MARKETING</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE E USO DE TECNOLOGIA DE PONTA | CONTRAS: SISTEMA HIBRIDO PARA A TI</t>
+          <t>PROS: DESAFIOS PROFISSIONAIS, BENEFICIOS SAO MUITO BONS E COMPETITIVOS COM O MERCADO. | CONTRAS: FALTA UM PLANO DE CARREIRA PARA OS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE E USO DE TECNOLOGIA DE PONTA</t>
+          <t>PROS: DESAFIOS PROFISSIONAIS, BENEFICIOS SAO MUITO BONS E COMPETITIVOS COM O MERCADO.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SISTEMA HIBRIDO PARA A TI</t>
+          <t>FALTA UM PLANO DE CARREIRA PARA OS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[-0.03604996 -0.01304029 -0.03730661 ...  0.02044741 -0.00815835
-  0.03348633]</t>
+          <t>[-0.04082815 -0.00704653 -0.06811265 ...  0.00734417 -0.00109487
+  0.00344607]</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2820,39 +2824,37 @@
         <v>5</v>
       </c>
       <c r="H59" t="n">
-        <v>32.25370025634766</v>
+        <v>10.52657604217529</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.632418751716614</v>
+        <v>-2.210981130599976</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TECH ANALYST</t>
+          <t>ANALISTA DE PROJETOS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE SAUDAVEL
-BENEFICIOS COMPATIVEIS COM A CATEGORIA | CONTRAS: TRABALHO PRESENCIAL E HORARIO FIXO</t>
+          <t>PROS: UMA BOA EMPRESA DE SE TRABALHAR, SALARIO E BENEFICIOS BONS, TIMES INTEGRADOS | CONTRAS: FALTA UMA GESTAO DE CARREIRA QUE SEJA MAIS BEM FEITA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE SAUDAVEL
-BENEFICIOS COMPATIVEIS COM A CATEGORIA</t>
+          <t>PROS: UMA BOA EMPRESA DE SE TRABALHAR, SALARIO E BENEFICIOS BONS, TIMES INTEGRADOS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL E HORARIO FIXO</t>
+          <t>FALTA UMA GESTAO DE CARREIRA QUE SEJA MAIS BEM FEITA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[-0.00211129 -0.00563196 -0.03501553 ...  0.02274149 -0.0361327
-  0.02899092]</t>
+          <t>[-0.0248886  -0.01604302 -0.0618934  ... -0.0138377  -0.00843498
+ -0.00335922]</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2862,37 +2864,43 @@
         <v>5</v>
       </c>
       <c r="H60" t="n">
-        <v>24.10136032104492</v>
+        <v>10.0110445022583</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.526232957839966</v>
+        <v>-4.97650146484375</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IOS DEVELOPER</t>
+          <t>ENGENHEIRO DE DADOS JUNIOR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM BENEFICIOS BONS TIME E LIDERANCA OTIMOS | CONTRAS: QUANDO TERMINOU A PANDEMIA, A EMPRESA COMECOU A FORCAR A VOLTA AO PRESENCIAL, A PARTIR DAI FOI TUDO LADEIRA A BAIXO</t>
+          <t>PROS: OTIMOS BENEFICIOS (DESTAQUE PRO VALE)
+OTIMA EQUIPE E LIDERANCA
+AMBIENTE DE TRABALHO COLABORATIVO | CONTRAS: PLANO DE SAUDE AMIL COOPARTICIPATIVO
+PLANO DE CARREIRA POUCO DEFINIDO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM BENEFICIOS BONS TIME E LIDERANCA OTIMOS</t>
+          <t>PROS: OTIMOS BENEFICIOS (DESTAQUE PRO VALE)
+OTIMA EQUIPE E LIDERANCA
+AMBIENTE DE TRABALHO COLABORATIVO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>QUANDO TERMINOU A PANDEMIA, A EMPRESA COMECOU A FORCAR A VOLTA AO PRESENCIAL, A PARTIR DAI FOI TUDO LADEIRA A BAIXO</t>
+          <t>PLANO DE SAUDE AMIL COOPARTICIPATIVO
+PLANO DE CARREIRA POUCO DEFINIDO</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[-0.00886755  0.00672509 -0.04435385 ...  0.02535574 -0.05670657
-  0.029976  ]</t>
+          <t>[-0.01944664  0.00763648 -0.00569868 ...  0.00199894  0.00778278
+ -0.02973724]</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2902,37 +2910,37 @@
         <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>21.86150741577148</v>
+        <v>18.03203773498535</v>
       </c>
       <c r="I61" t="n">
-        <v>3.636868476867676</v>
+        <v>-11.49544525146484</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>INSTRUTOR DE TREINAMENTO</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROS: FACILIDADE DE COMUNICACAO COM A GESTAO, OPORTUNIDADE DE CRESCIMENTO, DISPONIBILIZACAO DE VALE REFEICAO E ALIMENTACAO, | CONTRAS: NAO ADESAO AO HOME OFFICE E REGIME HIBRIDO.</t>
+          <t>PROS: BENEFICIOS, AREA COMUM, PREDIO E LOCALIZACAO. | CONTRAS: PROJECAO DE CARREIRA, HIERARQUIA, SO SOBE QUEM ESTA EM CIMA E NAO DA OPORTUNIDADEPROS DEMAIS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PROS: FACILIDADE DE COMUNICACAO COM A GESTAO, OPORTUNIDADE DE CRESCIMENTO, DISPONIBILIZACAO DE VALE REFEICAO E ALIMENTACAO,</t>
+          <t>PROS: BENEFICIOS, AREA COMUM, PREDIO E LOCALIZACAO.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NAO ADESAO AO HOME OFFICE E REGIME HIBRIDO.</t>
+          <t>PROJECAO DE CARREIRA, HIERARQUIA, SO SOBE QUEM ESTA EM CIMA E NAO DA OPORTUNIDADEPROS DEMAIS</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[-0.00621002 -0.01614256 -0.04314301 ...  0.01560406 -0.0659321
-  0.00651388]</t>
+          <t>[-0.04229895 -0.02168337 -0.04004574 ...  0.02763389  0.02430815
+ -0.02153151]</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2942,47 +2950,37 @@
         <v>5</v>
       </c>
       <c r="H62" t="n">
-        <v>31.15273475646973</v>
+        <v>9.628684997558594</v>
       </c>
       <c r="I62" t="n">
-        <v>2.023008823394775</v>
+        <v>1.556023478507996</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS;
-DESENVOLVIMENTO DE CARREIRA;
-LIDER HUMANA E MUITO CAPACITADA | CONTRAS: DESORGANIZACAO;
-CULTURA DE DADOS IMATURA;
-POUCA DIVERSIDADE;
-100% PRESENCIAL.</t>
+          <t>PROS: SALARIO E BOM, VALE E OTIMO! | CONTRAS: NAO TEM PLANO DE CARREIRA BEM DEFINIDO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS;
-DESENVOLVIMENTO DE CARREIRA;
-LIDER HUMANA E MUITO CAPACITADA</t>
+          <t>PROS: SALARIO E BOM, VALE E OTIMO!</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>DESORGANIZACAO;
-CULTURA DE DADOS IMATURA;
-POUCA DIVERSIDADE;
-100% PRESENCIAL.</t>
+          <t>NAO TEM PLANO DE CARREIRA BEM DEFINIDO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[-0.01913971 -0.02648833 -0.03921515 ...  0.02159485 -0.04956892
-  0.01284237]</t>
+          <t>[-0.02643432 -0.00140762 -0.03378791 ... -0.0161368   0.02001998
+ -0.01518095]</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2992,37 +2990,37 @@
         <v>5</v>
       </c>
       <c r="H63" t="n">
-        <v>26.85470771789551</v>
+        <v>16.14240455627441</v>
       </c>
       <c r="I63" t="n">
-        <v>-8.818692207336426</v>
+        <v>-3.548390626907349</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE DE TI MUITO BOA E ENGAJADA, COM LIBERDADE PRA PROPOR SOLUCOES E TECNOLOGIAS. BONS BENEFICIOS (VA+VR), MAS MAIS DEVIDO AO SINDICATO QUE A EMPRESA EM SI. GESTORES PROXIMOS AOS DESENVOLVEDORES ACESSIVEIS E COMPREENSIVOS. | CONTRAS: A EMPRESA SIMPLESMENTE REVOGOU COMPLETAMENTE O HOME OFFICE PRATICAMENTE SEM AVISO PREVIO, FORAM MENOS DE 5 DIAS ENTRE O ANUNCIO OFICIAL E A DATA EM QUE DEVERIAMOS ESTAR PRESENTES NO ESCRITORIO. ESSA REGRA, INCLUSIVE NAO VALE PRA TODOS OS FUNCIONARIOS, APENAS PROS QUE MORAM EM BELO HORIZONTE E RECIFE. SE VOCE MORA NAS REGIOES METROPOLITANAS OU CIDADES EM QUE NAO HA ESCRITORIO, CONTINUA NO HOME OFFICE, OU SEJA, A NOVA "CULTURA" DO INTER NAO E PARA TODOS. A JA PROBLEMATICA DECISAO FICA AINDA PIOR NA EXECUCAO, TANTO NO PRAZO DADO PARA NOS ORGANIZARMOS, NA ESTRUTURA DO PREDIO QUE NAO SUPORTA COM CONFORTO O NUMERO DE FUNCIONARIOS QUANTO NA CARA LAVADA QUE O CEO DEU A NOTICIA. SE E UMA TENTATIVA DE USAR O MERCADO CHEIO DE LAYOFFS PARA GARANTIR QUE AS PESSOAS NAO VAO SAIR, VAI SE PROVAR UM GRANDE TIRO NO PE, JA QUE OS PRIMEIROS A SAIR SERAO OS QUE DETEM A MAIOR PARTE DO CONHECIMENTO DOS SISTEMAS.</t>
+          <t>PROS: CULTURA E AMBIENTE DE TRABALHO | CONTRAS: PLANO DE CARREIRA NAO E BEM DEFINIDO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE DE TI MUITO BOA E ENGAJADA, COM LIBERDADE PRA PROPOR SOLUCOES E TECNOLOGIAS. BONS BENEFICIOS (VA+VR), MAS MAIS DEVIDO AO SINDICATO QUE A EMPRESA EM SI. GESTORES PROXIMOS AOS DESENVOLVEDORES ACESSIVEIS E COMPREENSIVOS.</t>
+          <t>PROS: CULTURA E AMBIENTE DE TRABALHO</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A EMPRESA SIMPLESMENTE REVOGOU COMPLETAMENTE O HOME OFFICE PRATICAMENTE SEM AVISO PREVIO, FORAM MENOS DE 5 DIAS ENTRE O ANUNCIO OFICIAL E A DATA EM QUE DEVERIAMOS ESTAR PRESENTES NO ESCRITORIO. ESSA REGRA, INCLUSIVE NAO VALE PRA TODOS OS FUNCIONARIOS, APENAS PROS QUE MORAM EM BELO HORIZONTE E RECIFE. SE VOCE MORA NAS REGIOES METROPOLITANAS OU CIDADES EM QUE NAO HA ESCRITORIO, CONTINUA NO HOME OFFICE, OU SEJA, A NOVA "CULTURA" DO INTER NAO E PARA TODOS. A JA PROBLEMATICA DECISAO FICA AINDA PIOR NA EXECUCAO, TANTO NO PRAZO DADO PARA NOS ORGANIZARMOS, NA ESTRUTURA DO PREDIO QUE NAO SUPORTA COM CONFORTO O NUMERO DE FUNCIONARIOS QUANTO NA CARA LAVADA QUE O CEO DEU A NOTICIA. SE E UMA TENTATIVA DE USAR O MERCADO CHEIO DE LAYOFFS PARA GARANTIR QUE AS PESSOAS NAO VAO SAIR, VAI SE PROVAR UM GRANDE TIRO NO PE, JA QUE OS PRIMEIROS A SAIR SERAO OS QUE DETEM A MAIOR PARTE DO CONHECIMENTO DOS SISTEMAS.</t>
+          <t>PLANO DE CARREIRA NAO E BEM DEFINIDO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[-0.02092     0.00450584 -0.01262232 ... -0.00884494 -0.03947626
-  0.00902032]</t>
+          <t>[-0.0031321  -0.01309452 -0.04274421 ... -0.01099188  0.02996299
+  0.00457295]</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3032,37 +3030,37 @@
         <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>-43.92874908447266</v>
+        <v>16.14841842651367</v>
       </c>
       <c r="I64" t="n">
-        <v>13.05943965911865</v>
+        <v>-6.298647880554199</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER I</t>
+          <t>PRODUCT DESIGNER</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROS: LIDERANCAS MUITO BOAS FEEDBACK PRODUTIVO EMPRESA BEM ORGANIZADA PRIORIZA SEGURANCA | CONTRAS: TRABALHO PRESENCIAL EM UMA LOCALIZACAO RUIM</t>
+          <t>PROS: EMPRESA DESAFIADORA, COM NOVOS PRODUTOS E MELHORIAS SENDO LANCADOS A TODO INSTANTE. | CONTRAS: FALTA UM PLANO DE CARREIRA MAIS DEFINIDO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PROS: LIDERANCAS MUITO BOAS FEEDBACK PRODUTIVO EMPRESA BEM ORGANIZADA PRIORIZA SEGURANCA</t>
+          <t>PROS: EMPRESA DESAFIADORA, COM NOVOS PRODUTOS E MELHORIAS SENDO LANCADOS A TODO INSTANTE.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL EM UMA LOCALIZACAO RUIM</t>
+          <t>FALTA UM PLANO DE CARREIRA MAIS DEFINIDO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[-0.03022974  0.01149145 -0.0239025  ...  0.00643007 -0.04882653
- -0.0148055 ]</t>
+          <t>[-0.02591443 -0.00865872 -0.0538737  ... -0.00889331  0.0232515
+  0.01015245]</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3072,37 +3070,37 @@
         <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>23.30520248413086</v>
+        <v>11.01437664031982</v>
       </c>
       <c r="I65" t="n">
-        <v>-2.388061285018921</v>
+        <v>-4.711077690124512</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ADVOGADO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO E CULTURA DAS PESSOAS | CONTRAS: PODERIA SER 100% HOME OFFICE</t>
+          <t>PROS: SALARIO E BENEFICIOS BONS, AMBIENTE AGRADAVEL. | CONTRAS: DIFICULDADE DE CRESCIMENTO, AUSENCIA DE PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO E CULTURA DAS PESSOAS</t>
+          <t>PROS: SALARIO E BENEFICIOS BONS, AMBIENTE AGRADAVEL.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PODERIA SER 100% HOME OFFICE</t>
+          <t>DIFICULDADE DE CRESCIMENTO, AUSENCIA DE PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[ 0.00423396  0.01900599 -0.04799246 ... -0.02205734 -0.04497654
-  0.01368951]</t>
+          <t>[-0.04178683  0.01237286 -0.03022834 ...  0.00898535  0.00500063
+  0.00941781]</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3112,45 +3110,37 @@
         <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>25.27614784240723</v>
+        <v>12.01206970214844</v>
       </c>
       <c r="I66" t="n">
-        <v>11.18490028381348</v>
+        <v>-2.93232274055481</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>ARQUIETO DE SOLUCOES</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIDADE DE CARREIRA
-AMBIENTE DESAFIADOR
-BONS BENEFICIOS | CONTRAS: PLR
-NAO POSSUI PREVIDENCIA COMPLEMENTAR
-100% PRESENCIAL</t>
+          <t>PROS: BENEFICIOS, SALARIO, AMBIENTE, PESSOAS, GESTAO. | CONTRAS: FALTA DE UM PLANO DE CARREIRA DEFINIDO.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIDADE DE CARREIRA
-AMBIENTE DESAFIADOR
-BONS BENEFICIOS</t>
+          <t>PROS: BENEFICIOS, SALARIO, AMBIENTE, PESSOAS, GESTAO.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PLR
-NAO POSSUI PREVIDENCIA COMPLEMENTAR
-100% PRESENCIAL</t>
+          <t>FALTA DE UM PLANO DE CARREIRA DEFINIDO.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[-0.05710358  0.00225257 -0.00689728 ...  0.00310535 -0.0468839
-  0.01529546]</t>
+          <t>[-0.04029203 -0.00563032 -0.05222593 ... -0.00668576  0.00362227
+  0.00325594]</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3160,37 +3150,39 @@
         <v>5</v>
       </c>
       <c r="H67" t="n">
-        <v>22.08620262145996</v>
+        <v>12.26206302642822</v>
       </c>
       <c r="I67" t="n">
-        <v>-11.77537631988525</v>
+        <v>-3.791317224502563</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SQUAD LEADER</t>
+          <t>IOS SOFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DINAMICA E ORIENTADA A CRESCIMENTO, SEMPRE INVESTINDO EM PREPARACAO DA LIDERANCA PARA FORMAR BEM AS PESSOAS. PESSOAS ENGAJADAS E FAZER O SEU MELHOR. | CONTRAS: PRESENCIAL AQUI EM BELO HORIZONTE</t>
+          <t>PROS: ADOTANDO TRABALHO REMOTO.
+BONS SALARIOS | CONTRAS: HIERARQUIA MUITO BASEADA EM CONHECIMENTO DOS SUPERIORES E INDICACOES. FALTA PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DINAMICA E ORIENTADA A CRESCIMENTO, SEMPRE INVESTINDO EM PREPARACAO DA LIDERANCA PARA FORMAR BEM AS PESSOAS. PESSOAS ENGAJADAS E FAZER O SEU MELHOR.</t>
+          <t>PROS: ADOTANDO TRABALHO REMOTO.
+BONS SALARIOS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PRESENCIAL AQUI EM BELO HORIZONTE</t>
+          <t>HIERARQUIA MUITO BASEADA EM CONHECIMENTO DOS SUPERIORES E INDICACOES. FALTA PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[-0.0267741   0.01040121 -0.01733412 ...  0.01923434 -0.00520305
-  0.02066994]</t>
+          <t>[-0.03327136 -0.01975891 -0.05542463 ...  0.01397286  0.0085585
+  0.03754884]</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3200,37 +3192,37 @@
         <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>21.76686096191406</v>
+        <v>9.568897247314453</v>
       </c>
       <c r="I68" t="n">
-        <v>-2.823421955108643</v>
+        <v>1.136788606643677</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>ENGENHEIRO DE DADOS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE , BONS BENEFICIOS, OTIMOS GERENTES . | CONTRAS: SALARIO DEFASADO , 2 ANOS SEM PLR, LAY OFF EXPRESSIVO , 100% PRESENCIAL .</t>
+          <t>PROS: AMBIENTE LEVE E PROPICIO PARA DESAFIOS | CONTRAS: NAO POSSUI PLANO DE CARREIRA E FALTA TRANSPARENCIA NESSE QUESITO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE , BONS BENEFICIOS, OTIMOS GERENTES .</t>
+          <t>PROS: AMBIENTE LEVE E PROPICIO PARA DESAFIOS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SALARIO DEFASADO , 2 ANOS SEM PLR, LAY OFF EXPRESSIVO , 100% PRESENCIAL .</t>
+          <t>NAO POSSUI PLANO DE CARREIRA E FALTA TRANSPARENCIA NESSE QUESITO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[-0.06325245 -0.01610595 -0.02022112 ...  0.00908009 -0.03945377
-  0.00033766]</t>
+          <t>[-0.03792568 -0.01996789 -0.02316936 ... -0.01347949  0.02394857
+ -0.03029442]</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3240,37 +3232,37 @@
         <v>5</v>
       </c>
       <c r="H69" t="n">
-        <v>21.61145782470703</v>
+        <v>17.7880744934082</v>
       </c>
       <c r="I69" t="n">
-        <v>-9.599209785461426</v>
+        <v>-3.577858924865723</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE RECEPTIVO E COLEGAS DE TRABALHO EXCELENTES, SALARIO COMPETITIVO E PROJETOS GRANDES E COMPLEXOS | CONTRAS: TRABALHO E NA MODALIDADE PRESENCIAL</t>
+          <t>PROS: DRESS CODE FLEXIVEL, AMBIENTE DINAMICO, GYMPASS | CONTRAS: PERSPECTIVA DE CARREIRA, PLANO DE CARREIRA E SALARIOS E BENEFICIOS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE RECEPTIVO E COLEGAS DE TRABALHO EXCELENTES, SALARIO COMPETITIVO E PROJETOS GRANDES E COMPLEXOS</t>
+          <t>PROS: DRESS CODE FLEXIVEL, AMBIENTE DINAMICO, GYMPASS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TRABALHO E NA MODALIDADE PRESENCIAL</t>
+          <t>PERSPECTIVA DE CARREIRA, PLANO DE CARREIRA E SALARIOS E BENEFICIOS</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[ 0.00361396  0.00332042 -0.035672   ...  0.04430081 -0.05610407
-  0.00222194]</t>
+          <t>[-0.03132726 -0.00111906 -0.04836851 ...  0.01846857  0.01536842
+ -0.02301698]</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3280,37 +3272,37 @@
         <v>5</v>
       </c>
       <c r="H70" t="n">
-        <v>24.85859298706055</v>
+        <v>12.7435417175293</v>
       </c>
       <c r="I70" t="n">
-        <v>-2.35089373588562</v>
+        <v>-12.18263053894043</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ANALISTA SOLUCOES II</t>
+          <t>ASSISTENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROS: CLIMA AMIGAVEL, OTIMOS BENEFICIOS, BONS EQUIPAMENTOS | CONTRAS: A EMPRESA OPTOU PELO MODELO DE TRABALHO PRESENCIAL</t>
+          <t>PROS: CRESCIMENTO DA EMPRESA, INOVACAO, TECNOLOGIA, CULTURA JOVEM. | CONTRAS: FALTA PLANO DE CARREIRA, LIDERANCAS, RECONHECIMENTO E RETENCAO.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PROS: CLIMA AMIGAVEL, OTIMOS BENEFICIOS, BONS EQUIPAMENTOS</t>
+          <t>PROS: CRESCIMENTO DA EMPRESA, INOVACAO, TECNOLOGIA, CULTURA JOVEM.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A EMPRESA OPTOU PELO MODELO DE TRABALHO PRESENCIAL</t>
+          <t>FALTA PLANO DE CARREIRA, LIDERANCAS, RECONHECIMENTO E RETENCAO.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[-0.02183793 -0.01178277 -0.04255221 ...  0.02948489 -0.06584557
- -0.00546445]</t>
+          <t>[-0.01101018  0.00709543 -0.04151096 ...  0.01422594  0.00637374
+  0.00921006]</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3320,37 +3312,37 @@
         <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>24.07647514343262</v>
+        <v>10.96845531463623</v>
       </c>
       <c r="I71" t="n">
-        <v>1.262048959732056</v>
+        <v>-3.378487825393677</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FRONTEND DEVELOPER</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL COM O MERCADO | CONTRAS: FALTA BENEFICIOS, REGIME PRESENCIAL TOTAL OU QUASE</t>
+          <t>PROS: O CLIMA DENTRO DO MEU SETOR E BOM. | CONTRAS: FALTA MUITO UM PLANO DE CARREIRA E TRANSPARENCIA.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL COM O MERCADO</t>
+          <t>PROS: O CLIMA DENTRO DO MEU SETOR E BOM.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FALTA BENEFICIOS, REGIME PRESENCIAL TOTAL OU QUASE</t>
+          <t>FALTA MUITO UM PLANO DE CARREIRA E TRANSPARENCIA.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[ 0.00894982  0.00058856 -0.02626846 ...  0.01054131 -0.0474486
- -0.01670653]</t>
+          <t>[-0.02917209 -0.0032768  -0.05093015 ...  0.00046955 -0.00133114
+  0.00425768]</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3360,37 +3352,37 @@
         <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>19.92114448547363</v>
+        <v>10.6375904083252</v>
       </c>
       <c r="I72" t="n">
-        <v>-9.380243301391602</v>
+        <v>-3.975255966186523</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ANALISTA FRONT END SENIOR</t>
+          <t>ANALISTA DE TREINAMENTO E DESENVOLVIMENTO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PROS: APRENDIZADO DE NOVAS TECNOLOGIAS. EQUIPE DIVERSIFICADA. | CONTRAS: MODELO DE TRABALHO HIBRIDO SENDO IMPLANTADO.</t>
+          <t>PROS: LIBERDADE, AUTONOMIA, PERTENCIMENTO E PROTAGONISMO! | CONTRAS: DIVERSIDADE, INCLUSAO, PLANO DE CARREIRA, MAIS BENEFICIOS.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PROS: APRENDIZADO DE NOVAS TECNOLOGIAS. EQUIPE DIVERSIFICADA.</t>
+          <t>PROS: LIBERDADE, AUTONOMIA, PERTENCIMENTO E PROTAGONISMO!</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO HIBRIDO SENDO IMPLANTADO.</t>
+          <t>DIVERSIDADE, INCLUSAO, PLANO DE CARREIRA, MAIS BENEFICIOS.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[-0.03614717  0.00460614 -0.0565142  ...  0.02656751 -0.04347127
-  0.02828675]</t>
+          <t>[-0.02130194 -0.02149586 -0.03128603 ...  0.00788323  0.00640138
+ -0.01662337]</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3400,37 +3392,37 @@
         <v>5</v>
       </c>
       <c r="H73" t="n">
-        <v>30.74019050598145</v>
+        <v>12.3451681137085</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.742425680160522</v>
+        <v>-12.15086460113525</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>COORDENADOR DE GROWTH</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROS: AUTONOMIA, COLABORACAO, CLIMA E BENEFICIOS SAO OS PONTOS FORTES. | CONTRAS: MODELO DE TRABALHO 100% PRESENCIAL, RH POUCO ATUANTE (NAO HA PLANO DE CARREIRA, POR EX)</t>
+          <t>PROS: AMBIENTE DE TRABALHO E POSSIBILIDADE DE APRENDIZADO. | CONTRAS: CARGA DE TRABALHO E PLANO DE CARREIRA INEXISTENTE.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PROS: AUTONOMIA, COLABORACAO, CLIMA E BENEFICIOS SAO OS PONTOS FORTES.</t>
+          <t>PROS: AMBIENTE DE TRABALHO E POSSIBILIDADE DE APRENDIZADO.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO 100% PRESENCIAL, RH POUCO ATUANTE (NAO HA PLANO DE CARREIRA, POR EX)</t>
+          <t>CARGA DE TRABALHO E PLANO DE CARREIRA INEXISTENTE.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[-0.0326104   0.00985104 -0.03945314 ...  0.02093988 -0.02085974
- -0.01397331]</t>
+          <t>[-0.0075632   0.00505008 -0.02745004 ...  0.00788016 -0.01513816
+ -0.0040029 ]</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3440,37 +3432,37 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>19.75312614440918</v>
+        <v>13.1633129119873</v>
       </c>
       <c r="I74" t="n">
-        <v>-10.86024856567383</v>
+        <v>-6.565577507019043</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>ADVOGADO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO LEGAL E ABERTA. | CONTRAS: NAO TEM HOME OFFICE E NAO SAO ABERTOS AO ERRO.</t>
+          <t>PROS: OTIMOS BENEFICIOS, FLEXIBILIDADE, AMBIENTE TRANQUILO. | CONTRAS: AUSENCIA DE PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO LEGAL E ABERTA.</t>
+          <t>PROS: OTIMOS BENEFICIOS, FLEXIBILIDADE, AMBIENTE TRANQUILO.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE E NAO SAO ABERTOS AO ERRO.</t>
+          <t>AUSENCIA DE PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[-0.00125005 -0.03532332 -0.04551557 ... -0.01581206 -0.06580534
- -0.02316671]</t>
+          <t>[-0.04663422  0.00523973 -0.03691845 ...  0.00887332 -0.00627508
+  0.01370328]</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3480,37 +3472,37 @@
         <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>29.13625335693359</v>
+        <v>13.21652126312256</v>
       </c>
       <c r="I75" t="n">
-        <v>10.79222774505615</v>
+        <v>-4.146653175354004</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR JAVA PLENO</t>
+          <t>GERENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROS: AS PESSOAS QUE TRABALHAM NO INTER SAO EXTREMAMENTE EXCELENTES, TRABALHAMOS COM TECNOLOGIA DE PONTA, PRODUTOS MUITO INTERESSANTES. | CONTRAS: EMPRESA ESTAVA EM HOMEOFFICE DESDE A PANDEMIA ATE FINAL DE 2022, QUANDO DECIDIU QUE TODOS DEVERIAM RETORNAR AO PRESENCIAL, SEM OPCAO DE ESCOLHA.</t>
+          <t>PROS: CULTURA, INOVACAO, EQUILIBRIO E COBRANCA | CONTRAS: OUSADIA, PLANO DE CARREIRA, MERITOCRACIA E FLEXIBILIDADE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PROS: AS PESSOAS QUE TRABALHAM NO INTER SAO EXTREMAMENTE EXCELENTES, TRABALHAMOS COM TECNOLOGIA DE PONTA, PRODUTOS MUITO INTERESSANTES.</t>
+          <t>PROS: CULTURA, INOVACAO, EQUILIBRIO E COBRANCA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>EMPRESA ESTAVA EM HOMEOFFICE DESDE A PANDEMIA ATE FINAL DE 2022, QUANDO DECIDIU QUE TODOS DEVERIAM RETORNAR AO PRESENCIAL, SEM OPCAO DE ESCOLHA.</t>
+          <t>OUSADIA, PLANO DE CARREIRA, MERITOCRACIA E FLEXIBILIDADE</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[-0.031213    0.01288762  0.00157697 ...  0.02326969 -0.08787385
-  0.0111258 ]</t>
+          <t>[-0.0608118  -0.02817927 -0.04544716 ...  0.01217614  0.01605603
+  0.01704783]</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3520,37 +3512,37 @@
         <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>21.97306060791016</v>
+        <v>12.95199871063232</v>
       </c>
       <c r="I76" t="n">
-        <v>3.711702346801758</v>
+        <v>-13.24782371520996</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROS: BOM PARA DAR VISIBILIDADE NA CARREIRA E OBTER EXPERIENCIA EM VARIAS TECNOLOGIAS | CONTRAS: AGORA VOLTAMOS AO ESQUEMA PRESENCIAL</t>
+          <t>PROS: CRESCIMENTO ACELERADO MUITA OPORTUNIDADE E AUTONOMIA. | CONTRAS: FALTA PLANO DE CARREIRA MAIS DEFINIDO.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PROS: BOM PARA DAR VISIBILIDADE NA CARREIRA E OBTER EXPERIENCIA EM VARIAS TECNOLOGIAS</t>
+          <t>PROS: CRESCIMENTO ACELERADO MUITA OPORTUNIDADE E AUTONOMIA.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>AGORA VOLTAMOS AO ESQUEMA PRESENCIAL</t>
+          <t>FALTA PLANO DE CARREIRA MAIS DEFINIDO.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[-0.00431584  0.01816787 -0.04548356 ... -0.01007666 -0.03827336
-  0.00445132]</t>
+          <t>[-0.03537853 -0.0078688  -0.05438893 ... -0.00878816  0.01872785
+ -0.00067184]</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -3560,37 +3552,37 @@
         <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>21.32902145385742</v>
+        <v>11.05187034606934</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4028211236000061</v>
+        <v>-4.653508186340332</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO BONS BENEFICIOS AMBIENTE LEGAL | CONTRAS: NAO TEM HOME OFFICE NENHUM DIA DA SEMANA</t>
+          <t>PROS: OS BENEFICIOS INDEPENDENTE DOS CARGOS SAO BONS | CONTRAS: NAO HA DESENVOLVIMENTO DE PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO BONS BENEFICIOS AMBIENTE LEGAL</t>
+          <t>PROS: OS BENEFICIOS INDEPENDENTE DOS CARGOS SAO BONS</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE NENHUM DIA DA SEMANA</t>
+          <t>NAO HA DESENVOLVIMENTO DE PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[-0.02642378 -0.03322826 -0.03264328 ...  0.00649812 -0.05491585
- -0.01144214]</t>
+          <t>[-0.03374776  0.01262066 -0.03664405 ... -0.00895095  0.01979653
+  0.01082912]</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3600,37 +3592,37 @@
         <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>28.47712326049805</v>
+        <v>14.89976215362549</v>
       </c>
       <c r="I78" t="n">
-        <v>10.54637622833252</v>
+        <v>-2.802160263061523</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ANALISTA DE SEGURANCA DA INFORMACAO</t>
+          <t>ANALISTA CLOUD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DA OPORTUNIDADE PARA FUNCIONARIOS | CONTRAS: VOLTA AO PRESENCIAL NAO FAZ SENTIDO.</t>
+          <t>PROS: OTIMOS BENEFICIOS, BOM AMBIENTE DE TRABALHO | CONTRAS: PLANO DE CARGO E SALARIO NAO E BEM DEFINIDO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DA OPORTUNIDADE PARA FUNCIONARIOS</t>
+          <t>PROS: OTIMOS BENEFICIOS, BOM AMBIENTE DE TRABALHO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VOLTA AO PRESENCIAL NAO FAZ SENTIDO.</t>
+          <t>PLANO DE CARGO E SALARIO NAO E BEM DEFINIDO</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[-0.00697409  0.01524449 -0.03793512 ... -0.00186482 -0.05585504
-  0.02219568]</t>
+          <t>[-0.00190665 -0.0070625  -0.06699777 ...  0.00215282  0.00434761
+ -0.0191243 ]</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3640,37 +3632,37 @@
         <v>5</v>
       </c>
       <c r="H79" t="n">
-        <v>19.84750175476074</v>
+        <v>16.1251220703125</v>
       </c>
       <c r="I79" t="n">
-        <v>1.565645575523376</v>
+        <v>-7.48485803604126</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ANALISTA FINANCEIRO S NIOR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROS: BOM PLANO DE SAUDE E BENEFICIOS DO SETOR BANCARIO. | CONTRAS: CONTRATAM PROFISSIONAIS PARA TRABALHO HIBRIDO E TORNA 100% PRESENCIAL. ALGUMAS EQUIPES TRABALHAM PARA ATRAPALHAR AS OUTRAS AO QUE PARECE. REMOVERAM ATE O REFEITORIO (QUE JA NAO COMPORTAVA O FLUXO DE PESSOAS). ELEVADORES SEMPRE LOTADOS. BEM TRISTE TUDO QUE ESTA ACONTECENDO.</t>
+          <t>PROS: OTIMO AMBIENTE DE TRABALHO E BENEFICIOS | CONTRAS: NAO POSSUI PLANO DE CARREIRA CLARO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PROS: BOM PLANO DE SAUDE E BENEFICIOS DO SETOR BANCARIO.</t>
+          <t>PROS: OTIMO AMBIENTE DE TRABALHO E BENEFICIOS</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CONTRATAM PROFISSIONAIS PARA TRABALHO HIBRIDO E TORNA 100% PRESENCIAL. ALGUMAS EQUIPES TRABALHAM PARA ATRAPALHAR AS OUTRAS AO QUE PARECE. REMOVERAM ATE O REFEITORIO (QUE JA NAO COMPORTAVA O FLUXO DE PESSOAS). ELEVADORES SEMPRE LOTADOS. BEM TRISTE TUDO QUE ESTA ACONTECENDO.</t>
+          <t>NAO POSSUI PLANO DE CARREIRA CLARO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[-0.01730465 -0.00278825 -0.04186657 ...  0.0088452  -0.01794557
-  0.06624416]</t>
+          <t>[-0.02397651 -0.02187978 -0.02514823 ... -0.01134844  0.01303839
+ -0.02256561]</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3680,37 +3672,37 @@
         <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>30.71204566955566</v>
+        <v>17.37590789794922</v>
       </c>
       <c r="I80" t="n">
-        <v>-6.698712825775146</v>
+        <v>-3.904839754104614</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SRE ENGINEER</t>
+          <t>ANALISTA DE PRODUTOS JUNIOR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR, SEMPRE COM POSSIBILIDADE DE DESENVOLVIMENTO | CONTRAS: 100% PRESENCIAL, PODERIA TER OPCAO DE UMA PRESENCAS HIBRIDA, HOME OFFICE E PRESENCIAL. PLANO DE CARREIRA NAO E BEM DEFINIDO.</t>
+          <t>PROS: GRANDE AUTONOMIA E AMBIENTE LEGAL DE TRABALHAR | CONTRAS: NAO TEM PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR, SEMPRE COM POSSIBILIDADE DE DESENVOLVIMENTO</t>
+          <t>PROS: GRANDE AUTONOMIA E AMBIENTE LEGAL DE TRABALHAR</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL, PODERIA TER OPCAO DE UMA PRESENCAS HIBRIDA, HOME OFFICE E PRESENCIAL. PLANO DE CARREIRA NAO E BEM DEFINIDO.</t>
+          <t>NAO TEM PLANO DE CARREIRA.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[-0.03840589  0.00696638 -0.03128608 ...  0.02097161 -0.01085034
-  0.00628851]</t>
+          <t>[-0.03345493  0.01304137 -0.0325665  ... -0.01123709  0.00442944
+ -0.00855258]</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3720,37 +3712,37 @@
         <v>5</v>
       </c>
       <c r="H81" t="n">
-        <v>18.14319610595703</v>
+        <v>14.71054935455322</v>
       </c>
       <c r="I81" t="n">
-        <v>-11.85125827789307</v>
+        <v>-1.846855282783508</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE DADOS</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS PROFISSIONAIS COM DIVERSOS NIVEIS DE CONHECIMENTO OTIMOS BENEFICIOS CULTURA DATADRIVEN EM AMADURECIMENTO | CONTRAS: 100% PRESENCIAL DEMORA MAIS PEGAR O ELEVADOR DO QUE O ONIBUS AUMENTO BIZARRO NO PRECO DAS COISAS NO INTERCAFE APOS RETORNO AO PRESENCIAL</t>
+          <t>PROS: O E VR MUITO BOM | CONTRAS: PLANO DE CARREIRA NAO E ESTRUTURADO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS PROFISSIONAIS COM DIVERSOS NIVEIS DE CONHECIMENTO OTIMOS BENEFICIOS CULTURA DATADRIVEN EM AMADURECIMENTO</t>
+          <t>PROS: O E VR MUITO BOM</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL DEMORA MAIS PEGAR O ELEVADOR DO QUE O ONIBUS AUMENTO BIZARRO NO PRECO DAS COISAS NO INTERCAFE APOS RETORNO AO PRESENCIAL</t>
+          <t>PLANO DE CARREIRA NAO E ESTRUTURADO</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[-0.00989991  0.01066394 -0.01530047 ... -0.02314569 -0.03312112
-  0.02320087]</t>
+          <t>[-0.0011444  -0.02131715 -0.00679241 ...  0.00881128  0.02071021
+  0.01155528]</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3760,37 +3752,39 @@
         <v>5</v>
       </c>
       <c r="H82" t="n">
-        <v>30.52428817749023</v>
+        <v>16.37248039245605</v>
       </c>
       <c r="I82" t="n">
-        <v>-7.899384021759033</v>
+        <v>-6.287822246551514</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ASSISTANT MANAGER</t>
+          <t>CONSULTOR COMERCIAL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROS: OTIMO LUGAR PARA SE TRABALHAR | CONTRAS: PROBLEMA QUE E TOTALMENTE PRESENCIAL</t>
+          <t>PROS: PAGAMENTOS EM DIA 
+BONS BENEFICIOS | CONTRAS: AUSENCIA DE PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PROS: OTIMO LUGAR PARA SE TRABALHAR</t>
+          <t>PROS: PAGAMENTOS EM DIA 
+BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PROBLEMA QUE E TOTALMENTE PRESENCIAL</t>
+          <t>AUSENCIA DE PLANO DE CARREIRA</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[ 0.02672206  0.00530708 -0.03180679 ...  0.02217198 -0.02270452
-  0.02978247]</t>
+          <t>[-0.04773854  0.00236757 -0.03218896 ...  0.00807962 -0.01138915
+  0.01500305]</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3800,37 +3794,37 @@
         <v>5</v>
       </c>
       <c r="H83" t="n">
-        <v>26.55506896972656</v>
+        <v>13.52214527130127</v>
       </c>
       <c r="I83" t="n">
-        <v>-6.244645595550537</v>
+        <v>-4.593332767486572</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>CUSTOMER SERVICE SPECIALIST</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROS: BOAS E NOVAS TECNOLOGIAS ABERTURA PARA NOVAS IDEIAS LIDERES REFERENCIA VALE ALIMENTACAO E REFEICAO | CONTRAS: 0% HOME OFFICE COMUNICACAO CORPORATIVA NAO EFETIVA SEM FLEXIBILIDADE DE BENEFICIOS</t>
+          <t>PROS: BOM SALARIO, MEIO HORARIO, LEGAL | CONTRAS: SEM PLANO DE CARREIRA, LIDERES</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PROS: BOAS E NOVAS TECNOLOGIAS ABERTURA PARA NOVAS IDEIAS LIDERES REFERENCIA VALE ALIMENTACAO E REFEICAO</t>
+          <t>PROS: BOM SALARIO, MEIO HORARIO, LEGAL</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0% HOME OFFICE COMUNICACAO CORPORATIVA NAO EFETIVA SEM FLEXIBILIDADE DE BENEFICIOS</t>
+          <t>SEM PLANO DE CARREIRA, LIDERES</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[-0.06224355  0.03625593 -0.03507142 ...  0.00752351 -0.03629234
-  0.00353786]</t>
+          <t>[-0.04434865 -0.00505208 -0.04175373 ...  0.0064055   0.01902488
+ -0.00982517]</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3840,37 +3834,37 @@
         <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>25.19048118591309</v>
+        <v>13.41856575012207</v>
       </c>
       <c r="I84" t="n">
-        <v>12.52629947662354</v>
+        <v>-3.006412267684937</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ANALISTA DE SEGURANCA DA INFORMACAO SENIOR</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR DE APRENDIZADO CONTINUO. OPORTUNIDADE DE CRESCIMENTO. | CONTRAS: MODELO DE TRABALHO PRESENCIAL. MUITAS AUDITORIAS.</t>
+          <t>PROS: BANCO EM CONSTANTE CRESCIMENTO, PODE OCORRER OPORTUNIDADES FUTURAS. HOUVE AUMENTO SIGNIFICATIVO DO QUADRO DE FUNCIONARIOS NOS ULTIMOS ANOS.. | CONTRAS: ACREDITO QUE PRECISA SER IMPLEMENTADO UM PLANO DE CARREIRA MAIS ROBUSTO E MAIS OPORTUNIDADES INTERNAS, ANTES DE CONTRATAR FUNCIONARIOS EXTERNOS.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR DE APRENDIZADO CONTINUO. OPORTUNIDADE DE CRESCIMENTO.</t>
+          <t>PROS: BANCO EM CONSTANTE CRESCIMENTO, PODE OCORRER OPORTUNIDADES FUTURAS. HOUVE AUMENTO SIGNIFICATIVO DO QUADRO DE FUNCIONARIOS NOS ULTIMOS ANOS..</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO PRESENCIAL. MUITAS AUDITORIAS.</t>
+          <t>ACREDITO QUE PRECISA SER IMPLEMENTADO UM PLANO DE CARREIRA MAIS ROBUSTO E MAIS OPORTUNIDADES INTERNAS, ANTES DE CONTRATAR FUNCIONARIOS EXTERNOS.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[-0.01980272 -0.00165229 -0.03722713 ...  0.01001335 -0.03513224
-  0.03515693]</t>
+          <t>[-0.04166884  0.03610214 -0.06290506 ... -0.00272007  0.00963467
+ -0.00984939]</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3880,37 +3874,37 @@
         <v>5</v>
       </c>
       <c r="H85" t="n">
-        <v>25.96726417541504</v>
+        <v>9.266178131103516</v>
       </c>
       <c r="I85" t="n">
-        <v>-4.267201900482178</v>
+        <v>-6.895171642303467</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>CONSULTOR COMERCIAL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PARA TRABALHAR, SALARIOS SEMPRE EM DIA E VR E VA SAO EXCELENTES. | CONTRAS: O NAO PAGAMENTO DE PL, REFEITORIO MUITO CHEIO, NAO TEM MODELO DE TRABALHO HIBRIDO, E 100% PRESENCIAL.</t>
+          <t>PROS: OTIMOS BENEFICIOS E SALARIO COMPATIVEL COM O MERCADO. | CONTRAS: NAO POSSUI PLANO DE CARREIRA PARA QUEM MORA NO NORDESTE, TUDO E CENTRALIZADO NA MATRIZ.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PARA TRABALHAR, SALARIOS SEMPRE EM DIA E VR E VA SAO EXCELENTES.</t>
+          <t>PROS: OTIMOS BENEFICIOS E SALARIO COMPATIVEL COM O MERCADO.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>O NAO PAGAMENTO DE PL, REFEITORIO MUITO CHEIO, NAO TEM MODELO DE TRABALHO HIBRIDO, E 100% PRESENCIAL.</t>
+          <t>NAO POSSUI PLANO DE CARREIRA PARA QUEM MORA NO NORDESTE, TUDO E CENTRALIZADO NA MATRIZ.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[-0.0431212  -0.0147208  -0.04119771 ...  0.02314336 -0.05330416
-  0.01423836]</t>
+          <t>[ 0.00284316 -0.00813424 -0.03224739 ...  0.00591952  0.00234349
+  0.0204954 ]</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3920,2130 +3914,10 @@
         <v>5</v>
       </c>
       <c r="H86" t="n">
-        <v>22.85329627990723</v>
+        <v>17.26003456115723</v>
       </c>
       <c r="I86" t="n">
-        <v>-11.51301670074463</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>ANALISTA DE AUTOMACAO DE PROCESSOS JUNIOR</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>PROS: SALARIOS NA MEDIA DO MERCADO E BENEFICIOS BONS POR SE TRATAR DO SETOR BANCARIO, APESAR DE NAO TER PLR. | CONTRAS: MODELO PRESENCIAL E NAO TEM PLR</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>PROS: SALARIOS NA MEDIA DO MERCADO E BENEFICIOS BONS POR SE TRATAR DO SETOR BANCARIO, APESAR DE NAO TER PLR.</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>MODELO PRESENCIAL E NAO TEM PLR</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[-0.04694185 -0.01493592 -0.01786415 ...  0.01757115 -0.0508334
- -0.0149321 ]</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>5</v>
-      </c>
-      <c r="G87" t="n">
-        <v>5</v>
-      </c>
-      <c r="H87" t="n">
-        <v>26.74928283691406</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-2.539366483688354</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>CIENTISTA DE DADOS SENIOR</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE AGRADAVEL E PESSOAS AMIGAVEIS | CONTRAS: ATUACAO PRESENCIAL, NAO EXISTE MAIS A POSSIBILIDADE DE TRABALHO REMOTO.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE AGRADAVEL E PESSOAS AMIGAVEIS</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>ATUACAO PRESENCIAL, NAO EXISTE MAIS A POSSIBILIDADE DE TRABALHO REMOTO.</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[ 0.01247508  0.01109592 -0.02342064 ...  0.02964051 -0.05869276
-  0.00753827]</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>5</v>
-      </c>
-      <c r="G88" t="n">
-        <v>5</v>
-      </c>
-      <c r="H88" t="n">
-        <v>27.32198524475098</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.639897584915161</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>DEV II</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>PROS: EQUIPE MUITO BOA, RELACIONAMENTO OTIMO, SEM COBRANCAS EXCESSIVAS OU MAL ESTAR | CONTRAS: MODO PRESENCIAL PARA ALGUNS COLABORADORES</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>PROS: EQUIPE MUITO BOA, RELACIONAMENTO OTIMO, SEM COBRANCAS EXCESSIVAS OU MAL ESTAR</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>MODO PRESENCIAL PARA ALGUNS COLABORADORES</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[-0.04463721 -0.01792911 -0.05522779 ...  0.01981722 -0.06385035
- -0.02456266]</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>5</v>
-      </c>
-      <c r="G89" t="n">
-        <v>5</v>
-      </c>
-      <c r="H89" t="n">
-        <v>25.39285469055176</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-3.465192079544067</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>COORDENADOR</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>PROS: ERA UMA STARTUP INOVADORA COM GRANDE POTENCIAL | CONTRAS: ACABOU COM O MODELO HOME OFFICE DE MANEIRA BRUTA, SEM RESPEITO AOS VARIOS COLABORADORES</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>PROS: ERA UMA STARTUP INOVADORA COM GRANDE POTENCIAL</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>ACABOU COM O MODELO HOME OFFICE DE MANEIRA BRUTA, SEM RESPEITO AOS VARIOS COLABORADORES</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>[-0.01882992  0.01385336 -0.03216265 ... -0.01331801 -0.06572375
-  0.00095199]</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>5</v>
-      </c>
-      <c r="G90" t="n">
-        <v>5</v>
-      </c>
-      <c r="H90" t="n">
-        <v>30.38712882995605</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.736231327056885</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR SENIOR</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, EQUIPE SENSACIONAL, BOM SALARIO, OTIMOS MATERIAIS DE TRABALHO | CONTRAS: A MUDANCA PRO TRABALHO PRESENCIAL FOI MUITO REPENTINA, E PEGOU TODOS DE SURPRESA. SEM NENHUM PRE AVISO TODOS FORAM "CONVIDADOS" A RETORNAR AO TRABALHO PRESENCIAL.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, EQUIPE SENSACIONAL, BOM SALARIO, OTIMOS MATERIAIS DE TRABALHO</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>A MUDANCA PRO TRABALHO PRESENCIAL FOI MUITO REPENTINA, E PEGOU TODOS DE SURPRESA. SEM NENHUM PRE AVISO TODOS FORAM "CONVIDADOS" A RETORNAR AO TRABALHO PRESENCIAL.</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>[ 4.2562220e-05  3.4675654e-02 -3.8956873e-02 ...  1.0962432e-02
- -5.4139994e-02  2.2035753e-02]</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>5</v>
-      </c>
-      <c r="G91" t="n">
-        <v>5</v>
-      </c>
-      <c r="H91" t="n">
-        <v>17.95787239074707</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-4.435973644256592</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>ANALISTA SENIOR</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>PROS: SALARIOS E BENEFICIOS, LIDERANCA COMPROMETIDA | CONTRAS: NAO POSSUI HOME DEFORMA DEFINIDA.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>PROS: SALARIOS E BENEFICIOS, LIDERANCA COMPROMETIDA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>NAO POSSUI HOME DEFORMA DEFINIDA.</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[ 0.01055658 -0.01357716 -0.0566688  ... -0.00583292 -0.078072
- -0.00301331]</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>5</v>
-      </c>
-      <c r="G92" t="n">
-        <v>5</v>
-      </c>
-      <c r="H92" t="n">
-        <v>30.29899215698242</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11.14365768432617</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>SENIOR SOFTWARE ENGINEER</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS E SALARIO ALEM DO PAGAMENTO DE PARTICIPACAO DOS LUCROS | CONTRAS: TRABALHO NAO E FLEXIVEL, TEM QUE IR PARA O ESCRITORIO TODO DIA</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS E SALARIO ALEM DO PAGAMENTO DE PARTICIPACAO DOS LUCROS</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>TRABALHO NAO E FLEXIVEL, TEM QUE IR PARA O ESCRITORIO TODO DIA</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>[-0.02923028  0.00997796 -0.02107285 ...  0.01436391 -0.03400201
-  0.07079501]</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>5</v>
-      </c>
-      <c r="G93" t="n">
-        <v>5</v>
-      </c>
-      <c r="H93" t="n">
-        <v>34.69771957397461</v>
-      </c>
-      <c r="I93" t="n">
-        <v>-8.503213882446289</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>DEV II</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>PROS: BOM SALARIO, BOA EQUIPE, TRABALHO TRANQUILO. | CONTRAS: PLR PODERIA SER MELHOR, MODELO DE TRABALHO FOI OBRIGADO A SER PRESENCIAL, PROMOCOES POSTERGADAS</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>PROS: BOM SALARIO, BOA EQUIPE, TRABALHO TRANQUILO.</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>PLR PODERIA SER MELHOR, MODELO DE TRABALHO FOI OBRIGADO A SER PRESENCIAL, PROMOCOES POSTERGADAS</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[-0.04200723 -0.00656604 -0.00972573 ... -0.01036839 -0.02806559
- -0.0252804 ]</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>5</v>
-      </c>
-      <c r="G94" t="n">
-        <v>5</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15.98849964141846</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-1.948797821998596</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>ANALISTA DE SUSTENTACAO PLENO</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>PROS: POSTO DE TRABALHO, ESTRUTURA DO PREDIO EXCELENTE. | CONTRAS: TRABALHO 100% PRESENCIAL SEM A NECESSIDADE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>PROS: POSTO DE TRABALHO, ESTRUTURA DO PREDIO EXCELENTE.</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>TRABALHO 100% PRESENCIAL SEM A NECESSIDADE</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[-0.01390741 -0.00811709 -0.02941687 ...  0.0072409  -0.04422035
- -0.00310236]</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>5</v>
-      </c>
-      <c r="G95" t="n">
-        <v>5</v>
-      </c>
-      <c r="H95" t="n">
-        <v>23.54673004150391</v>
-      </c>
-      <c r="I95" t="n">
-        <v>-6.47754430770874</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>TECH ANALYST</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>PROS: VALE ALIMENTACAO/REFEICAO BONS, AMBIENTE TRANQUILO. | CONTRAS: POUCA PERSPECTIVA DE CRESCIMENTO, 100% PRESENCIAL, NAO PAGA PARTICIPACAO NOS LUCROS</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>PROS: VALE ALIMENTACAO/REFEICAO BONS, AMBIENTE TRANQUILO.</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>POUCA PERSPECTIVA DE CRESCIMENTO, 100% PRESENCIAL, NAO PAGA PARTICIPACAO NOS LUCROS</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>[-0.05795429 -0.00445272 -0.02166495 ... -0.00181581 -0.03352
- -0.01316566]</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>5</v>
-      </c>
-      <c r="G96" t="n">
-        <v>5</v>
-      </c>
-      <c r="H96" t="n">
-        <v>21.76196479797363</v>
-      </c>
-      <c r="I96" t="n">
-        <v>-11.09656524658203</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>ANALISTA JUNIOR I</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE LEGAL, BONS PROFISSIONAIS, BONS EQUIPAMENTOS, LIBERDADE, OPINIOES SAO OUVIDAS E DISCUTIDAS.BENEFICIOS E SALARIOS MUITO BONS | CONTRAS: VOLTA 100% DO PRESENCIAL, SEM AVISO PREVIO. NAO TEM UM PLANO DE CARREIRA MUITO BEM DEFINIDO.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE LEGAL, BONS PROFISSIONAIS, BONS EQUIPAMENTOS, LIBERDADE, OPINIOES SAO OUVIDAS E DISCUTIDAS.BENEFICIOS E SALARIOS MUITO BONS</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>VOLTA 100% DO PRESENCIAL, SEM AVISO PREVIO. NAO TEM UM PLANO DE CARREIRA MUITO BEM DEFINIDO.</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[-0.02572753  0.00813708 -0.03671625 ... -0.00742444 -0.01693461
-  0.02700856]</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>5</v>
-      </c>
-      <c r="G97" t="n">
-        <v>5</v>
-      </c>
-      <c r="H97" t="n">
-        <v>18.31348609924316</v>
-      </c>
-      <c r="I97" t="n">
-        <v>-10.21574783325195</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>ANALISTA JUNIOR</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>PROS: TIME MUITO LEGAL, APRENDIZADO CONTINUO | CONTRAS: PRESENCA 100% PRESENCIAL, MENOS FLEXIBILIDADE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>PROS: TIME MUITO LEGAL, APRENDIZADO CONTINUO</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>PRESENCA 100% PRESENCIAL, MENOS FLEXIBILIDADE</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[-0.01219322 -0.03488651 -0.04655115 ...  0.0257562  -0.05618111
-  0.02621965]</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>5</v>
-      </c>
-      <c r="G98" t="n">
-        <v>5</v>
-      </c>
-      <c r="H98" t="n">
-        <v>22.67831230163574</v>
-      </c>
-      <c r="I98" t="n">
-        <v>-8.123866081237793</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>TECH MANAGER</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO, COM AUTONOMIA E CONFIANCA. | CONTRAS: TRABALHO 100% PRESENCIAL NOS ESCRITORIOS DE BH E RECIFE.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO, COM AUTONOMIA E CONFIANCA.</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>TRABALHO 100% PRESENCIAL NOS ESCRITORIOS DE BH E RECIFE.</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[-0.02146049  0.00858761 -0.00569897 ...  0.01418469 -0.01526345
-  0.03966178]</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>5</v>
-      </c>
-      <c r="G99" t="n">
-        <v>5</v>
-      </c>
-      <c r="H99" t="n">
-        <v>22.88459777832031</v>
-      </c>
-      <c r="I99" t="n">
-        <v>-4.746335506439209</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>ESTAGIARIO</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>PROS: OTIMA ESTRUTURA, POSSIBILIDADE DE CRESCIMENTO | CONTRAS: TRABALHO CEM POR CENTO PRESENCIAL</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>PROS: OTIMA ESTRUTURA, POSSIBILIDADE DE CRESCIMENTO</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>TRABALHO CEM POR CENTO PRESENCIAL</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[ 0.00547284 -0.00328203 -0.03143762 ... -0.00399434 -0.04723526
-  0.02029747]</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>5</v>
-      </c>
-      <c r="G100" t="n">
-        <v>5</v>
-      </c>
-      <c r="H100" t="n">
-        <v>23.48876571655273</v>
-      </c>
-      <c r="I100" t="n">
-        <v>-5.72543478012085</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>ENGENHEIRO DE SOFTWARE</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>PROS: BONS PARCEIROS, AMBIENTE AMIGAVEL E CONFORTAVEL | CONTRAS: DEVE TRABALHAR PRESENCIAL EM BH</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>PROS: BONS PARCEIROS, AMBIENTE AMIGAVEL E CONFORTAVEL</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>DEVE TRABALHAR PRESENCIAL EM BH</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[-0.02447081  0.02239396 -0.0135476  ...  0.02554108 -0.05260482
-  0.02907493]</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>5</v>
-      </c>
-      <c r="G101" t="n">
-        <v>5</v>
-      </c>
-      <c r="H101" t="n">
-        <v>22.20564270019531</v>
-      </c>
-      <c r="I101" t="n">
-        <v>-3.355758666992188</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>COORDENADOR</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>PROS: CLIMA EXCELENTE, OTIMO VA E VR | CONTRAS: 100% PRESENCIAL, SEM PL, SALARIO ABAIXO DO MERCADO, EMPRESA FAMILIAR</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>PROS: CLIMA EXCELENTE, OTIMO VA E VR</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>100% PRESENCIAL, SEM PL, SALARIO ABAIXO DO MERCADO, EMPRESA FAMILIAR</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[-0.06371853 -0.02129246 -0.03811525 ...  0.04773193 -0.05053665
- -0.0134103 ]</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>5</v>
-      </c>
-      <c r="G102" t="n">
-        <v>5</v>
-      </c>
-      <c r="H102" t="n">
-        <v>21.78011703491211</v>
-      </c>
-      <c r="I102" t="n">
-        <v>-9.248095512390137</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>ANALISTA SENIOR</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>PROS: MUITA AUTONOMIA PARA TRABALHAR, FAVORECE O ESPIRITO EMPREENDEDOR. USO DE NOVAS TECNOLOGIAS. TICKET TOP. | CONTRAS: EXIGIU O RETORNO DE HOME OFFICE, PLANO DE SAUDE PODERIA SER MELHOR E SEM DESCONTO PARA DEPENDENTES.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>PROS: MUITA AUTONOMIA PARA TRABALHAR, FAVORECE O ESPIRITO EMPREENDEDOR. USO DE NOVAS TECNOLOGIAS. TICKET TOP.</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>EXIGIU O RETORNO DE HOME OFFICE, PLANO DE SAUDE PODERIA SER MELHOR E SEM DESCONTO PARA DEPENDENTES.</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>[-0.00879673  0.00944173 -0.06147199 ... -0.00978234 -0.05844964
- -0.02028901]</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>5</v>
-      </c>
-      <c r="G103" t="n">
-        <v>5</v>
-      </c>
-      <c r="H103" t="n">
-        <v>18.42843055725098</v>
-      </c>
-      <c r="I103" t="n">
-        <v>10.66495418548584</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>ASSISTENTE</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>PROS: -VALE REFEICAO - VALE ALIMENTACAO | CONTRAS: - MODELO 100% PRESENCIAL - PLANO DE CARREIRA FALHO</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>PROS: -VALE REFEICAO - VALE ALIMENTACAO</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>- MODELO 100% PRESENCIAL - PLANO DE CARREIRA FALHO</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[-0.02167314 -0.01840448 -0.0131838  ...  0.0065007  -0.01866823
-  0.01533075]</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>5</v>
-      </c>
-      <c r="G104" t="n">
-        <v>5</v>
-      </c>
-      <c r="H104" t="n">
-        <v>18.96937942504883</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-11.58568477630615</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>PRODUCT ANALYST II</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>PROS: SALARIO, BENEFICIOS E RECONHECIMENTO DOS FUNCIONARIOS | CONTRAS: MODALIDADE DE TRABALHO PRESENCIAL, CONTRA O FLUXO DO MERCADO DE TI</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>PROS: SALARIO, BENEFICIOS E RECONHECIMENTO DOS FUNCIONARIOS</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>MODALIDADE DE TRABALHO PRESENCIAL, CONTRA O FLUXO DO MERCADO DE TI</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[-0.04137472 -0.01715182 -0.02375365 ...  0.02342626 -0.02254412
- -0.00943949]</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>5</v>
-      </c>
-      <c r="G105" t="n">
-        <v>5</v>
-      </c>
-      <c r="H105" t="n">
-        <v>25.61384963989258</v>
-      </c>
-      <c r="I105" t="n">
-        <v>-1.321157574653625</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>DEV II</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>PROS: EQUIPE MUITO BOA O QUE FAZ O TRABALHO SER MAIS PRODUTIVO | CONTRAS: PRESENCIAL FORCADO DE UMA HORA PARA A OUTRA, ATRASOS NAS PROMOCOES</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>PROS: EQUIPE MUITO BOA O QUE FAZ O TRABALHO SER MAIS PRODUTIVO</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>PRESENCIAL FORCADO DE UMA HORA PARA A OUTRA, ATRASOS NAS PROMOCOES</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>[ 0.02042002 -0.01385194 -0.01056426 ... -0.01452612 -0.03035928
-  0.00743763]</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>5</v>
-      </c>
-      <c r="G106" t="n">
-        <v>5</v>
-      </c>
-      <c r="H106" t="n">
-        <v>17.00492286682129</v>
-      </c>
-      <c r="I106" t="n">
-        <v>-2.582861661911011</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR SENIOR</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE TRANQUILO DE TRABALHAR, FLEXIBILIDADE NOS HORARIOS, BOM SALARIO E EXCELENTES BENEFICIOS. | CONTRAS: EMPRESA OBRIGANDO OS FUNCIONARIOS A VOLTAR PARA O TRABALHO PRESENCIAL, MESMO O HOME OFFICE TENDO SE MOSTRADO EFICIENTE.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE TRANQUILO DE TRABALHAR, FLEXIBILIDADE NOS HORARIOS, BOM SALARIO E EXCELENTES BENEFICIOS.</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>EMPRESA OBRIGANDO OS FUNCIONARIOS A VOLTAR PARA O TRABALHO PRESENCIAL, MESMO O HOME OFFICE TENDO SE MOSTRADO EFICIENTE.</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>[-0.02765662  0.03541273 -0.04791667 ...  0.03039935 -0.04975749
-  0.01035498]</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>5</v>
-      </c>
-      <c r="G107" t="n">
-        <v>5</v>
-      </c>
-      <c r="H107" t="n">
-        <v>23.31481742858887</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2.509032726287842</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>DEV SPECIALIST</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>PROS: TIMES MUITO BONS, SALARIO OK. | CONTRAS: TRABALHO PRESENCIAL EM PLENO 2022.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>PROS: TIMES MUITO BONS, SALARIO OK.</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>TRABALHO PRESENCIAL EM PLENO 2022.</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[-0.0146738   0.03112722  0.00292824 ...  0.01628068 -0.06868504
-  0.02844464]</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>5</v>
-      </c>
-      <c r="G108" t="n">
-        <v>5</v>
-      </c>
-      <c r="H108" t="n">
-        <v>23.83428764343262</v>
-      </c>
-      <c r="I108" t="n">
-        <v>-3.870881795883179</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR SENIOR</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>PROS: - BENEFICIOS - BOM SALARIO - STACK | CONTRAS: - TRABALHO 100% PRESENCIAL - PLANO DE CARREIRA NAO E CLARO</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>PROS: - BENEFICIOS - BOM SALARIO - STACK</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>- TRABALHO 100% PRESENCIAL - PLANO DE CARREIRA NAO E CLARO</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[-0.01289721 -0.00198538 -0.03400381 ...  0.02002389  0.00223851
- -0.01363144]</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>5</v>
-      </c>
-      <c r="G109" t="n">
-        <v>5</v>
-      </c>
-      <c r="H109" t="n">
-        <v>18.86346244812012</v>
-      </c>
-      <c r="I109" t="n">
-        <v>-11.89925861358643</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>FRONTEND DEVELOPER</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, BOM SALARIO E BOA EQUIPE | CONTRAS: ACABOU O HOME OFFICE E NAO TEM MAIS GYMPASS.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, BOM SALARIO E BOA EQUIPE</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>ACABOU O HOME OFFICE E NAO TEM MAIS GYMPASS.</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>[-0.02440664 -0.0282784  -0.0572704  ... -0.01908379 -0.10085484
-  0.02265542]</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>5</v>
-      </c>
-      <c r="G110" t="n">
-        <v>5</v>
-      </c>
-      <c r="H110" t="n">
-        <v>31.45268249511719</v>
-      </c>
-      <c r="I110" t="n">
-        <v>8.298519134521484</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>ANALISTA DE QUALIDADE JUNIOR</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>PROS: DECIMO DO VR-VA, NAO EXIGE O BATIMENTO DO PONTOS, OTIMOS PROFISSIONAIS. | CONTRAS: NAO ADOCAO DE TRABALHO HIBRIDO OU REMOTO OFICIALMENTE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>PROS: DECIMO DO VR-VA, NAO EXIGE O BATIMENTO DO PONTOS, OTIMOS PROFISSIONAIS.</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>NAO ADOCAO DE TRABALHO HIBRIDO OU REMOTO OFICIALMENTE</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[-0.00086796 -0.00507019 -0.02244265 ...  0.02370061 -0.04316027
-  0.03017524]</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>5</v>
-      </c>
-      <c r="G111" t="n">
-        <v>5</v>
-      </c>
-      <c r="H111" t="n">
-        <v>30.0096435546875</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.850671291351318</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>ANALISTA PLENO</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>PROS: PARA O MERCADO DE BELO HORIZONTE OS BENEFICIOS SAO BONS | CONTRAS: NAO TEM POSSIBILIDADE DE FAZER HOME OFFICE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>PROS: PARA O MERCADO DE BELO HORIZONTE OS BENEFICIOS SAO BONS</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>NAO TEM POSSIBILIDADE DE FAZER HOME OFFICE</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>[ 0.00814594  0.01920126 -0.01103012 ... -0.01789963 -0.0515185
- -0.02179357]</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>5</v>
-      </c>
-      <c r="G112" t="n">
-        <v>5</v>
-      </c>
-      <c r="H112" t="n">
-        <v>28.20384407043457</v>
-      </c>
-      <c r="I112" t="n">
-        <v>10.29559135437012</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR JUNIOR</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA MUITO BACANA, APRENDE MUITO, TECNOLOGIAS DO MERCADO, EQUIPES BACANAS | CONTRAS: OBRIGAM VOCE A IR PRESENCIAL, MESMO COM PANDEMIA</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA MUITO BACANA, APRENDE MUITO, TECNOLOGIAS DO MERCADO, EQUIPES BACANAS</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>OBRIGAM VOCE A IR PRESENCIAL, MESMO COM PANDEMIA</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[ 0.01715305  0.03158771 -0.01339981 ...  0.01801623 -0.03493379
- -0.00524589]</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>5</v>
-      </c>
-      <c r="G113" t="n">
-        <v>5</v>
-      </c>
-      <c r="H113" t="n">
-        <v>20.05630683898926</v>
-      </c>
-      <c r="I113" t="n">
-        <v>-0.5144816040992737</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR MASTER</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>PROS: TIMES MUITO BONS DE TRABALHAR | CONTRAS: FOMOS OBRIGADO A VOLTAR PARA O PRESENCIAL</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>PROS: TIMES MUITO BONS DE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>FOMOS OBRIGADO A VOLTAR PARA O PRESENCIAL</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>[ 0.01237566  0.02526124 -0.0216654  ... -0.0212113  -0.05070523
-  0.01640672]</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>5</v>
-      </c>
-      <c r="G114" t="n">
-        <v>5</v>
-      </c>
-      <c r="H114" t="n">
-        <v>20.56653022766113</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.05472681671380997</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR JAVA PLENO</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>PROS: BOA REMUNERACAO BONS BENEFICIOS OTIMOS LIDERES/COODENADORES TECNOLOGIAS ATUAIS GRANDE CHANCE DE APRENDIZADO E CRESCIMENTO | CONTRAS: EM TRANSICAO PARA TRABALHO PRESENCIAL</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>PROS: BOA REMUNERACAO BONS BENEFICIOS OTIMOS LIDERES/COODENADORES TECNOLOGIAS ATUAIS GRANDE CHANCE DE APRENDIZADO E CRESCIMENTO</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>EM TRANSICAO PARA TRABALHO PRESENCIAL</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>[-0.00082565  0.01328453 -0.04484891 ... -0.01026533 -0.05968096
- -0.00465793]</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>5</v>
-      </c>
-      <c r="G115" t="n">
-        <v>5</v>
-      </c>
-      <c r="H115" t="n">
-        <v>23.01263809204102</v>
-      </c>
-      <c r="I115" t="n">
-        <v>-1.521921873092651</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>ANALISTA PLENO</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>PROS: CULTURA SUPER TRANQUILA E TECNOLOGIA INOVADORAS PARA SE TRABALHAR. | CONTRAS: ESTA VOLTANDO COM O PRESENCIAL E A PARTICIPACAO NOS LUCROS ESTA VINDO BAIXA.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>PROS: CULTURA SUPER TRANQUILA E TECNOLOGIA INOVADORAS PARA SE TRABALHAR.</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>ESTA VOLTANDO COM O PRESENCIAL E A PARTICIPACAO NOS LUCROS ESTA VINDO BAIXA.</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[-0.05091276  0.00472459 -0.01887552 ... -0.00660543 -0.04158054
-  0.04279704]</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>5</v>
-      </c>
-      <c r="G116" t="n">
-        <v>5</v>
-      </c>
-      <c r="H116" t="n">
-        <v>20.20281219482422</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1.897545337677002</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>ANALISTA PLENO</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS COMO QUALQUER BANCO. E TIROU O GYMPASS E NAO VOLTOU, MESMO POS PANDEMIA. | CONTRAS: ORDEN DO CEO A TODOS VOLTAREM 100% PRESENCIAL. NAO TEM FLEXIBILIDADE.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS COMO QUALQUER BANCO. E TIROU O GYMPASS E NAO VOLTOU, MESMO POS PANDEMIA.</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>ORDEN DO CEO A TODOS VOLTAREM 100% PRESENCIAL. NAO TEM FLEXIBILIDADE.</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[ 0.00154358 -0.01380547 -0.03980237 ...  0.01621963 -0.04473202
-  0.03675267]</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>5</v>
-      </c>
-      <c r="G117" t="n">
-        <v>5</v>
-      </c>
-      <c r="H117" t="n">
-        <v>21.33887481689453</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-7.459818840026855</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR SALESFORCE</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>PROS: EQUIPE MUITO UNIDA, TIME SE AJUDA MUITO. BOAS LIDERANCAS | CONTRAS: VOLTA AO FORMATO DE TRABALHO PRESENCIAL.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>PROS: EQUIPE MUITO UNIDA, TIME SE AJUDA MUITO. BOAS LIDERANCAS</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>VOLTA AO FORMATO DE TRABALHO PRESENCIAL.</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>[-0.01133411  0.0158622  -0.03747415 ... -0.00860911 -0.06515785
-  0.03789773]</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>5</v>
-      </c>
-      <c r="G118" t="n">
-        <v>5</v>
-      </c>
-      <c r="H118" t="n">
-        <v>21.81311416625977</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.3055016696453094</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>MACHINE LEARNING ENGINEER</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>PROS: SALARIO E VA + VR | CONTRAS: PRESENCIAL, CAFETERIA MUITA MAIS CARA QUE DEVERIA</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>PROS: SALARIO E VA + VR</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>PRESENCIAL, CAFETERIA MUITA MAIS CARA QUE DEVERIA</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>[-0.00614928 -0.01113769 -0.01551877 ...  0.02746222 -0.04002742
-  0.07076503]</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>5</v>
-      </c>
-      <c r="G119" t="n">
-        <v>5</v>
-      </c>
-      <c r="H119" t="n">
-        <v>30.38033294677734</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-8.503603935241699</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR SENIOR</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS, PARTICIPACAO DE LUCROS E REMUNERACAO | CONTRAS: TRABALHO PRESENCIAL E ALGUMAS COISAS SEM UM AVISO.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS, PARTICIPACAO DE LUCROS E REMUNERACAO</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>TRABALHO PRESENCIAL E ALGUMAS COISAS SEM UM AVISO.</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[-0.00399277  0.02843204 -0.04088201 ... -0.00011789 -0.02702275
- -0.02677025]</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>5</v>
-      </c>
-      <c r="G120" t="n">
-        <v>5</v>
-      </c>
-      <c r="H120" t="n">
-        <v>19.04133796691895</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-4.649354934692383</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>COSTUMER SUCCESS</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, AMBIENTE SAUDAVEL, OPORTUNIDADE CRESCIMENTO. | CONTRAS: TRABALHO PRESENCIAL OBRIGATORIO SEM AVISO PREVIO.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, AMBIENTE SAUDAVEL, OPORTUNIDADE CRESCIMENTO.</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>TRABALHO PRESENCIAL OBRIGATORIO SEM AVISO PREVIO.</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>[-0.02713842  0.03154015 -0.02096049 ...  0.01491471 -0.04526819
-  0.00632536]</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>5</v>
-      </c>
-      <c r="G121" t="n">
-        <v>5</v>
-      </c>
-      <c r="H121" t="n">
-        <v>19.17443656921387</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-4.689757823944092</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>PRODUCT ANALYST</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>PROS: CULTURA LEVE, POUCA BUROCRACIA, BENEFICIOS SAO BONS | CONTRAS: NAO E A FAVOR DO HOME OFFICE, RECONHECIMENTOS SAO MAIS DEMORADOS, FALTA DE PROCESSOS</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>PROS: CULTURA LEVE, POUCA BUROCRACIA, BENEFICIOS SAO BONS</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>NAO E A FAVOR DO HOME OFFICE, RECONHECIMENTOS SAO MAIS DEMORADOS, FALTA DE PROCESSOS</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>[-0.01442631 -0.02609047 -0.04101552 ... -0.00191921 -0.03204586
- -0.01195349]</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>5</v>
-      </c>
-      <c r="G122" t="n">
-        <v>5</v>
-      </c>
-      <c r="H122" t="n">
-        <v>27.62485122680664</v>
-      </c>
-      <c r="I122" t="n">
-        <v>12.02774238586426</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>DEV I</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>PROS: VR / VA MUITO BOM | CONTRAS: ACABARAM COM O TRABALHO REMOTO PARA AS SEDES</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>PROS: VR / VA MUITO BOM</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>ACABARAM COM O TRABALHO REMOTO PARA AS SEDES</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[ 0.02481575 -0.01543426 -0.02269316 ... -0.0106864  -0.0668299
-  0.01419806]</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>5</v>
-      </c>
-      <c r="G123" t="n">
-        <v>5</v>
-      </c>
-      <c r="H123" t="n">
-        <v>31.72089004516602</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6.736442089080811</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>ANALISTA DE CREDITO IMOBILIARIO</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>PROS: A EMPRESA NAO VALORIZA OS FUNCIONARIOS. | CONTRAS: NAO TEM PLR E NEM HOME OFFICE.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>PROS: A EMPRESA NAO VALORIZA OS FUNCIONARIOS.</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>NAO TEM PLR E NEM HOME OFFICE.</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[-0.03124204 -0.01764332 -0.04039847 ... -0.01542864 -0.06484765
- -0.0351506 ]</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>5</v>
-      </c>
-      <c r="G124" t="n">
-        <v>5</v>
-      </c>
-      <c r="H124" t="n">
-        <v>29.0051441192627</v>
-      </c>
-      <c r="I124" t="n">
-        <v>11.16497993469238</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA POSSUI ALTA CAPACIDADE TECNICA | CONTRAS: EMPRESA E CONTRA O HOME OFFICE</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA POSSUI ALTA CAPACIDADE TECNICA</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>EMPRESA E CONTRA O HOME OFFICE</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[-0.00779152  0.00138982 -0.02820475 ...  0.00566307 -0.06983744
-  0.01581256]</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>5</v>
-      </c>
-      <c r="G125" t="n">
-        <v>5</v>
-      </c>
-      <c r="H125" t="n">
-        <v>28.29920959472656</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.823801517486572</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR FRONT END</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA MARAVILHOSA, SUPER ORGANIZADA, PREOCUPADOS COM BEM ESTAR DIA FUNCIONARIOS. OTIMO LOCAL PARA TRABALHAR. | CONTRAS: AINDA N TEM UM SISTEMA DE HOMEOFFICE POS-PANDEMIA, MAIS ESTA EM AVALIACAO.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA MARAVILHOSA, SUPER ORGANIZADA, PREOCUPADOS COM BEM ESTAR DIA FUNCIONARIOS. OTIMO LOCAL PARA TRABALHAR.</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>AINDA N TEM UM SISTEMA DE HOMEOFFICE POS-PANDEMIA, MAIS ESTA EM AVALIACAO.</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>[-0.04158296  0.01349779 -0.05154336 ... -0.00363456 -0.05948676
-  0.01877222]</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>5</v>
-      </c>
-      <c r="G126" t="n">
-        <v>5</v>
-      </c>
-      <c r="H126" t="n">
-        <v>23.80270576477051</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.753191471099854</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>ANALISTA DE CONTEUDO PLENO</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS INTERESSANTES, COMO VALE-ALIMENTACAO E VALE-REFEICAO. | CONTRAS: EMPRESA NAO ADERIU AO MODELO HIBRIDO OU REMOTO.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS INTERESSANTES, COMO VALE-ALIMENTACAO E VALE-REFEICAO.</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>EMPRESA NAO ADERIU AO MODELO HIBRIDO OU REMOTO.</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[-0.02804429 -0.01289136 -0.02197671 ...  0.03287745 -0.05620091
-  0.0403828 ]</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>5</v>
-      </c>
-      <c r="G127" t="n">
-        <v>5</v>
-      </c>
-      <c r="H127" t="n">
-        <v>29.64262199401855</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2.273240327835083</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>GERENTE</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>PROS: CLIMA OTIMO, BOAS CONDICOES DE TRABALHO, OPORTUNIDADE DE CRESCIMENTO. | CONTRAS: BENEFICIOS PODERIAM SER MELHORES, HOME OFFICE DEVERIA SER FORMALIZADO COMO DEFINITIVO.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>PROS: CLIMA OTIMO, BOAS CONDICOES DE TRABALHO, OPORTUNIDADE DE CRESCIMENTO.</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>BENEFICIOS PODERIAM SER MELHORES, HOME OFFICE DEVERIA SER FORMALIZADO COMO DEFINITIVO.</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[-0.00810703  0.01810922 -0.04205522 ... -0.02207538 -0.03479676
- -0.00278802]</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>5</v>
-      </c>
-      <c r="G128" t="n">
-        <v>5</v>
-      </c>
-      <c r="H128" t="n">
-        <v>18.93828582763672</v>
-      </c>
-      <c r="I128" t="n">
-        <v>11.10816860198975</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHAR, BONS BENEFICIOS, BOM PLANO DE SAUDE E VS E VR | CONTRAS: TEM HOME OFFICE PARA APENAS ALGUMAS AREAS</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHAR, BONS BENEFICIOS, BOM PLANO DE SAUDE E VS E VR</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>TEM HOME OFFICE PARA APENAS ALGUMAS AREAS</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>[ 0.01873692 -0.00688827 -0.03732348 ... -0.0265513  -0.04326579
- -0.01364859]</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>5</v>
-      </c>
-      <c r="G129" t="n">
-        <v>5</v>
-      </c>
-      <c r="H129" t="n">
-        <v>26.13154792785645</v>
-      </c>
-      <c r="I129" t="n">
-        <v>8.766160011291504</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR PLENO</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>PROS: AUTONOMIA E ESTRUTURA PARA A REALIZACAO DAS ATIVIDADES. | CONTRAS: REGIME HIBRIDO E IMPOSTO POR GESTAO, NAO PODENDO SER TOTALMENTE REMOTO.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>PROS: AUTONOMIA E ESTRUTURA PARA A REALIZACAO DAS ATIVIDADES.</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>REGIME HIBRIDO E IMPOSTO POR GESTAO, NAO PODENDO SER TOTALMENTE REMOTO.</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[-0.01090838  0.01649735 -0.02987122 ...  0.00574455 -0.06672423
- -0.0071907 ]</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>5</v>
-      </c>
-      <c r="G130" t="n">
-        <v>5</v>
-      </c>
-      <c r="H130" t="n">
-        <v>31.94595527648926</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-0.4162001311779022</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>ANALISTA DE AUTOMACAO</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>PROS: BOM AMBIENTE, COM PROJETOS DESAFIADORES, EMPRESA EM CONSTANTE EVOLUCAO | CONTRAS: RESISTENCIA A ADESAO DE HOME OFFICE</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>PROS: BOM AMBIENTE, COM PROJETOS DESAFIADORES, EMPRESA EM CONSTANTE EVOLUCAO</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>RESISTENCIA A ADESAO DE HOME OFFICE</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>[ 0.02352476  0.00298274 -0.02973961 ... -0.01641248 -0.09757089
-  0.04234512]</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>5</v>
-      </c>
-      <c r="G131" t="n">
-        <v>5</v>
-      </c>
-      <c r="H131" t="n">
-        <v>28.29205894470215</v>
-      </c>
-      <c r="I131" t="n">
-        <v>5.831034660339355</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>GERENTE BLACK DIGITAL</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>PROS: SALARIO COMPATIVEL COM A CLASSE | CONTRAS: PRESENCIAL. APESAR DO BANCO SER DIGITAL, PEDEM PARA IR A AGENCIA</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>PROS: SALARIO COMPATIVEL COM A CLASSE</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>PRESENCIAL. APESAR DO BANCO SER DIGITAL, PEDEM PARA IR A AGENCIA</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>[-0.0221497  -0.00220614 -0.05247384 ...  0.01842734 -0.06897553
- -0.02124289]</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>5</v>
-      </c>
-      <c r="G132" t="n">
-        <v>5</v>
-      </c>
-      <c r="H132" t="n">
-        <v>19.46327781677246</v>
-      </c>
-      <c r="I132" t="n">
-        <v>-1.669425487518311</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>ASSISTENTE</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>PROS: EXCELENTE LOCAL PARA TRABALHO. BANCO VEM CRESCENDO MUITO. | CONTRAS: ATUALMENTE NAO ESTA PRATICANDO HOME OFFICE EM TODAS AS AREAS.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>PROS: EXCELENTE LOCAL PARA TRABALHO. BANCO VEM CRESCENDO MUITO.</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>ATUALMENTE NAO ESTA PRATICANDO HOME OFFICE EM TODAS AS AREAS.</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>[-0.01798563  0.01483086 -0.03935165 ... -0.00319574 -0.05062837
-  0.00664411]</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>5</v>
-      </c>
-      <c r="G133" t="n">
-        <v>5</v>
-      </c>
-      <c r="H133" t="n">
-        <v>27.82378005981445</v>
-      </c>
-      <c r="I133" t="n">
-        <v>10.20487976074219</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>ANALISTA DE AUTOMACAO</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA RECEPTORA, MUITO ACOLHEDORA E TUDO BEM ORGANIZADO | CONTRAS: NAO POSSUI HORARIO FLEXIVEL OU HOME OFFICE PRO MEU TIME</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA RECEPTORA, MUITO ACOLHEDORA E TUDO BEM ORGANIZADO</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>NAO POSSUI HORARIO FLEXIVEL OU HOME OFFICE PRO MEU TIME</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[-0.02483857 -0.02323402 -0.02721906 ... -0.02525039 -0.06794938
- -0.00888783]</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>5</v>
-      </c>
-      <c r="G134" t="n">
-        <v>5</v>
-      </c>
-      <c r="H134" t="n">
-        <v>28.92373847961426</v>
-      </c>
-      <c r="I134" t="n">
-        <v>13.6943531036377</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>ANALISTA SENIOR</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>PROS: O INTER TEM UM EXCELENTE CLIMA PARA SE TRABALHAR | CONTRAS: SEM HOME OFFICE PARA TODAS AS AREAS</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>PROS: O INTER TEM UM EXCELENTE CLIMA PARA SE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>SEM HOME OFFICE PARA TODAS AS AREAS</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>[-0.00823566 -0.00909094 -0.02556316 ... -0.01487616 -0.04817134
-  0.0466971 ]</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>5</v>
-      </c>
-      <c r="G135" t="n">
-        <v>5</v>
-      </c>
-      <c r="H135" t="n">
-        <v>26.12584114074707</v>
-      </c>
-      <c r="I135" t="n">
-        <v>8.498874664306641</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR BACK-END</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS DA AREA BANCARIA COMO VALE ALIMENTACAO E REFEICAO | CONTRAS: TRABALHO PRESENCIAL NA SEDE DA EMPRESA</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS DA AREA BANCARIA COMO VALE ALIMENTACAO E REFEICAO</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>TRABALHO PRESENCIAL NA SEDE DA EMPRESA</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>[-0.02757346  0.01426283 -0.05709538 ...  0.0435817  -0.07922854
- -0.00097827]</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>5</v>
-      </c>
-      <c r="G136" t="n">
-        <v>5</v>
-      </c>
-      <c r="H136" t="n">
-        <v>24.10951042175293</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-2.47931694984436</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>ANALISTA DE SEGURANCA SENIOR</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>PROS: LEGAL, JUSTO, PARCEIRO, TRANSPARENTE, SEGURO. | CONTRAS: FUNCIONAMENTO HIBRIDO, ESCRITO E HOME</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>PROS: LEGAL, JUSTO, PARCEIRO, TRANSPARENTE, SEGURO.</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>FUNCIONAMENTO HIBRIDO, ESCRITO E HOME</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>[-0.00818676 -0.00670805 -0.04241085 ...  0.05029869 -0.03450729
-  0.04296849]</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>5</v>
-      </c>
-      <c r="G137" t="n">
-        <v>5</v>
-      </c>
-      <c r="H137" t="n">
-        <v>31.71422958374023</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1.562709212303162</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>ANALISTA DE SUPORTE TECNICO</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>PROS: BOM SALARIO E BENEFICIOS, AUXILIO CRECHE | CONTRAS: E PRESENCIAL, PRESSAO, MUITA COBRANCA</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>PROS: BOM SALARIO E BENEFICIOS, AUXILIO CRECHE</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>E PRESENCIAL, PRESSAO, MUITA COBRANCA</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>[ 0.00903034 -0.01091116 -0.01051751 ...  0.00192728 -0.07829177
-  0.03459215]</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>5</v>
-      </c>
-      <c r="G138" t="n">
-        <v>5</v>
-      </c>
-      <c r="H138" t="n">
-        <v>29.90323638916016</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-13.55467319488525</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>ANALISTA DE SUPORTE JUNIOR</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, FLEXIBILIDADE DE HORARIO. | CONTRAS: NAO ADEPTO A 100% HOME OFFICE.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, FLEXIBILIDADE DE HORARIO.</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>NAO ADEPTO A 100% HOME OFFICE.</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[-0.0048993  -0.03060398 -0.0431377  ... -0.01348948 -0.04893927
- -0.01833846]</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>5</v>
-      </c>
-      <c r="G139" t="n">
-        <v>5</v>
-      </c>
-      <c r="H139" t="n">
-        <v>26.72731781005859</v>
-      </c>
-      <c r="I139" t="n">
-        <v>11.91533851623535</v>
+        <v>-2.110296487808228</v>
       </c>
     </row>
   </sheetData>
